--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ48"/>
+  <dimension ref="A1:AQ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.03155</v>
+        <v>-0.0372</v>
       </c>
       <c r="E2">
-        <v>0.017</v>
+        <v>-0.132</v>
       </c>
       <c r="F2">
-        <v>0.0218</v>
+        <v>1.42065</v>
       </c>
       <c r="G2">
-        <v>-0.00938937055012309</v>
+        <v>0.01078851095549148</v>
       </c>
       <c r="H2">
-        <v>-0.00938937055012309</v>
+        <v>-0.01260102198944663</v>
       </c>
       <c r="I2">
-        <v>0.0173743898135769</v>
+        <v>-0.02352560867933563</v>
       </c>
       <c r="J2">
-        <v>0.01532859854326348</v>
+        <v>-0.02178324723517429</v>
       </c>
       <c r="K2">
-        <v>338.049</v>
+        <v>-22.98300000000001</v>
       </c>
       <c r="L2">
-        <v>0.1304804458233396</v>
+        <v>-0.005635408697699055</v>
       </c>
       <c r="M2">
-        <v>256.608</v>
+        <v>879.5987</v>
       </c>
       <c r="N2">
-        <v>0.02576877115112321</v>
+        <v>0.02958114834618066</v>
       </c>
       <c r="O2">
-        <v>0.759085221373233</v>
+        <v>-38.27170952443108</v>
       </c>
       <c r="P2">
-        <v>194.972</v>
+        <v>825.3107</v>
       </c>
       <c r="Q2">
-        <v>0.01957923700304275</v>
+        <v>0.0277554278427085</v>
       </c>
       <c r="R2">
-        <v>0.5767566240397103</v>
+        <v>-35.9096158029848</v>
       </c>
       <c r="S2">
-        <v>61.636</v>
+        <v>54.28799999999999</v>
       </c>
       <c r="T2">
-        <v>0.2401951614914578</v>
+        <v>0.06171905438241324</v>
       </c>
       <c r="U2">
-        <v>4693.614</v>
+        <v>5830.631</v>
       </c>
       <c r="V2">
-        <v>0.4713362990932005</v>
+        <v>0.1960857383746016</v>
       </c>
       <c r="W2">
-        <v>-0.0130225988700565</v>
+        <v>-0.01340503672612802</v>
       </c>
       <c r="X2">
-        <v>0.04989001850718036</v>
+        <v>0.04085957589906611</v>
       </c>
       <c r="Y2">
-        <v>-0.06291261737723686</v>
+        <v>-0.05426461262519412</v>
       </c>
       <c r="Z2">
-        <v>0.06457601846860894</v>
+        <v>0.07053356049600203</v>
       </c>
       <c r="AA2">
-        <v>0.004726098212251331</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04672712689424414</v>
+        <v>0.03564772950740492</v>
       </c>
       <c r="AC2">
-        <v>-0.04386167999747972</v>
+        <v>-0.03607573785752745</v>
       </c>
       <c r="AD2">
-        <v>29656.98</v>
+        <v>52471.259</v>
       </c>
       <c r="AE2">
-        <v>208.9969806110268</v>
+        <v>24.48480194554045</v>
       </c>
       <c r="AF2">
-        <v>29865.97698061103</v>
+        <v>52495.74380194554</v>
       </c>
       <c r="AG2">
-        <v>25172.36298061103</v>
+        <v>46665.11280194554</v>
       </c>
       <c r="AH2">
-        <v>0.7499477513352474</v>
+        <v>0.6383947311112986</v>
       </c>
       <c r="AI2">
-        <v>0.6515710812705485</v>
+        <v>0.6677879791090325</v>
       </c>
       <c r="AJ2">
-        <v>0.7165394601973789</v>
+        <v>0.6107981245410348</v>
       </c>
       <c r="AK2">
-        <v>0.6118223805121494</v>
+        <v>0.6411737251082797</v>
       </c>
       <c r="AL2">
-        <v>15.483</v>
+        <v>7.375</v>
       </c>
       <c r="AM2">
-        <v>-3.544000000000002</v>
+        <v>-6.526</v>
       </c>
       <c r="AN2">
-        <v>336.2545635955464</v>
+        <v>-583.169500755757</v>
       </c>
       <c r="AO2">
-        <v>-0.4858231608861333</v>
+        <v>-13.51105084745763</v>
       </c>
       <c r="AP2">
-        <v>285.4074126466703</v>
+        <v>-518.6395572368801</v>
       </c>
       <c r="AQ2">
-        <v>2.122460496613994</v>
+        <v>15.26877106956788</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Victory Securities (Holdings) Company Limited (SEHK:8540)</t>
+          <t>Amasse Capital Holdings Limited (SEHK:8168)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,40 +728,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-0.2162878787878788</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-0.2162878787878788</v>
       </c>
       <c r="I3">
-        <v>0.00729168554192015</v>
+        <v>0.2369808428892526</v>
       </c>
       <c r="J3">
-        <v>0.006538007120360336</v>
+        <v>0.2369808428892526</v>
       </c>
       <c r="K3">
-        <v>1.07</v>
+        <v>0.528</v>
       </c>
       <c r="L3">
-        <v>0.1498599439775911</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.01869158878504673</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="O3">
-        <v>0.5607476635514018</v>
+        <v>1.893939393939394</v>
       </c>
       <c r="P3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01869158878504673</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="R3">
-        <v>0.5607476635514018</v>
+        <v>1.893939393939394</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -776,55 +776,61 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0440903630582106</v>
+        <v>0.03218000619153984</v>
       </c>
       <c r="Z3">
-        <v>95.59918887609764</v>
+        <v>6.56956854539625</v>
       </c>
       <c r="AA3">
-        <v>0.6250281775725991</v>
+        <v>1.556861891306724</v>
       </c>
       <c r="AB3">
-        <v>0.04406971214499238</v>
+        <v>0.03193838540840865</v>
       </c>
       <c r="AC3">
-        <v>0.5809584654276068</v>
+        <v>1.524923505898316</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.335</v>
       </c>
       <c r="AE3">
-        <v>0.07468682615345067</v>
+        <v>0.4018528738618657</v>
       </c>
       <c r="AF3">
-        <v>0.07468682615345067</v>
+        <v>0.7368528738618658</v>
       </c>
       <c r="AG3">
-        <v>0.07468682615345067</v>
+        <v>0.7368528738618658</v>
       </c>
       <c r="AH3">
-        <v>0.002321291472299301</v>
+        <v>0.03911762112259885</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.120857906383286</v>
       </c>
       <c r="AJ3">
-        <v>0.002321291472299301</v>
+        <v>0.03911762112259885</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.120857906383286</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.4551630434782609</v>
+      </c>
+      <c r="AO3">
+        <v>45</v>
       </c>
       <c r="AP3">
-        <v>1.114728748558965</v>
+        <v>1.00115879600797</v>
+      </c>
+      <c r="AQ3">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KOALA Financial Group Limited (SEHK:8226)</t>
+          <t>eBullion, Inc. (OTCPK:EBML)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -843,9 +849,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D4">
-        <v>-0.0464</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -853,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06004932163570081</v>
+        <v>0.3323128498958476</v>
       </c>
       <c r="J4">
-        <v>0.03645851670738978</v>
+        <v>0.3323128498958476</v>
       </c>
       <c r="K4">
-        <v>-0.003</v>
+        <v>-0.665</v>
       </c>
       <c r="L4">
-        <v>-0.0007371007371007371</v>
+        <v>-0.6333333333333333</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -886,61 +889,70 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.1861702127659575</v>
+      </c>
+      <c r="W4">
+        <v>-0.2782426778242678</v>
       </c>
       <c r="X4">
-        <v>0.04893468465203536</v>
+        <v>0.03390237966562988</v>
+      </c>
+      <c r="Y4">
+        <v>-0.3121450574898976</v>
       </c>
       <c r="Z4">
-        <v>12.22235785319554</v>
+        <v>0.4630941447834097</v>
       </c>
       <c r="AA4">
-        <v>0.4456090379944264</v>
+        <v>0.1538921350230552</v>
       </c>
       <c r="AB4">
-        <v>0.04769871520934998</v>
+        <v>0.03338164917311695</v>
       </c>
       <c r="AC4">
-        <v>0.3979103227850764</v>
+        <v>0.1205104858499382</v>
       </c>
       <c r="AD4">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.3329963047134883</v>
+        <v>0.7553575380467998</v>
       </c>
       <c r="AF4">
-        <v>2.452996304713488</v>
+        <v>0.7553575380467998</v>
       </c>
       <c r="AG4">
-        <v>2.452996304713488</v>
+        <v>-0.2946424619532002</v>
       </c>
       <c r="AH4">
-        <v>0.1908501524904289</v>
+        <v>0.1181102907152698</v>
       </c>
       <c r="AI4">
-        <v>0.06899548729141232</v>
+        <v>0.3166642844935139</v>
       </c>
       <c r="AJ4">
-        <v>0.1908501524904289</v>
+        <v>-0.05512118878036041</v>
       </c>
       <c r="AK4">
-        <v>0.06899548729141232</v>
+        <v>-0.220646870638232</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-0.048</v>
       </c>
       <c r="AN4">
-        <v>6.816720257234727</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>7.887447925123757</v>
+        <v>-0.5892849239064004</v>
+      </c>
+      <c r="AQ4">
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Excalibur Global Financial Holdings Limited (SEHK:8350)</t>
+          <t>Lion Group Holding Ltd. (NasdaqCM:LGHL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,34 +978,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.04137855581226895</v>
+        <v>0.015058031743765</v>
       </c>
       <c r="J5">
-        <v>0.02068927790613448</v>
+        <v>0.01504115999951428</v>
       </c>
       <c r="K5">
-        <v>0.015</v>
+        <v>7.14</v>
       </c>
       <c r="L5">
-        <v>0.00375</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.386</v>
       </c>
       <c r="N5">
-        <v>0.03703703703703703</v>
+        <v>0.01026595744680851</v>
       </c>
       <c r="O5">
-        <v>53.33333333333334</v>
+        <v>0.05406162464985995</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.386</v>
       </c>
       <c r="Q5">
-        <v>0.03703703703703703</v>
+        <v>0.01026595744680851</v>
       </c>
       <c r="R5">
-        <v>53.33333333333334</v>
+        <v>0.05406162464985995</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1002,49 +1014,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.2156914893617021</v>
+      </c>
+      <c r="W5">
+        <v>1.237435008665511</v>
       </c>
       <c r="X5">
-        <v>0.04424226087727035</v>
+        <v>0.03196778356310549</v>
+      </c>
+      <c r="Y5">
+        <v>1.205467225102406</v>
       </c>
       <c r="Z5">
-        <v>20.26045998908393</v>
+        <v>2.568672729675889</v>
       </c>
       <c r="AA5">
-        <v>0.4191742872202757</v>
+        <v>0.03863581751344414</v>
       </c>
       <c r="AB5">
-        <v>0.0441254596467975</v>
+        <v>0.03189752872367862</v>
       </c>
       <c r="AC5">
-        <v>0.3750488275734782</v>
+        <v>0.006738288789765526</v>
       </c>
       <c r="AD5">
-        <v>0.011</v>
+        <v>0.621</v>
       </c>
       <c r="AE5">
-        <v>0.1974288837546209</v>
+        <v>0.4778284446269175</v>
       </c>
       <c r="AF5">
-        <v>0.208428883754621</v>
+        <v>1.098828444626917</v>
       </c>
       <c r="AG5">
-        <v>0.208428883754621</v>
+        <v>-7.011171555373082</v>
       </c>
       <c r="AH5">
-        <v>0.009557262692585906</v>
+        <v>0.02839435943646719</v>
       </c>
       <c r="AI5">
-        <v>0.02280795598520714</v>
+        <v>0.1024183069286768</v>
       </c>
       <c r="AJ5">
-        <v>0.009557262692585906</v>
+        <v>-0.2292069331149761</v>
       </c>
       <c r="AK5">
-        <v>0.02280795598520714</v>
+        <v>-2.677216817985151</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1053,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.05365853658536585</v>
+        <v>1.837278106508876</v>
       </c>
       <c r="AP5">
-        <v>1.016726262217663</v>
+        <v>-20.74311111057125</v>
       </c>
     </row>
     <row r="6">
@@ -1067,7 +1085,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Orient Securities International Holdings Limited (SEHK:8001)</t>
+          <t>ZZ Capital International Limited (SEHK:8295)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1075,26 +1093,23 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D6">
-        <v>-0.0277</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="I6">
-        <v>0.05293954191995355</v>
+        <v>0.08904761904761906</v>
       </c>
       <c r="J6">
-        <v>0.02646977095997678</v>
+        <v>0.08690705128205128</v>
       </c>
       <c r="K6">
-        <v>-0.007</v>
+        <v>1.01</v>
       </c>
       <c r="L6">
-        <v>-0.001837270341207349</v>
+        <v>0.09619047619047619</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1103,7 +1118,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1112,55 +1127,61 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.2475078325263458</v>
+      </c>
+      <c r="W6">
+        <v>0.01154285714285714</v>
       </c>
       <c r="X6">
-        <v>0.04501395970090413</v>
+        <v>0.03146165476279544</v>
+      </c>
+      <c r="Y6">
+        <v>-0.01991879761993829</v>
       </c>
       <c r="Z6">
-        <v>15.14900137728445</v>
+        <v>0.3884572697003331</v>
       </c>
       <c r="AA6">
-        <v>0.4009905967290922</v>
+        <v>0.03375967585873247</v>
       </c>
       <c r="AB6">
-        <v>0.04602070983721212</v>
+        <v>0.03145805695389491</v>
       </c>
       <c r="AC6">
-        <v>0.3549698868918801</v>
+        <v>0.002301618904837557</v>
       </c>
       <c r="AD6">
-        <v>0.128</v>
+        <v>0.643</v>
       </c>
       <c r="AE6">
-        <v>0.2515017264248849</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.3795017264248849</v>
+        <v>0.643</v>
       </c>
       <c r="AG6">
-        <v>0.3795017264248849</v>
+        <v>-86.25700000000001</v>
       </c>
       <c r="AH6">
-        <v>0.04475519183423646</v>
+        <v>0.001828039221818203</v>
       </c>
       <c r="AI6">
-        <v>0.009468723663664585</v>
+        <v>0.007093763445605287</v>
       </c>
       <c r="AJ6">
-        <v>0.04475519183423646</v>
+        <v>-0.3256910698036195</v>
       </c>
       <c r="AK6">
-        <v>0.009468723663664585</v>
+        <v>-23.04488378306175</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1169,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.5079365079365079</v>
+        <v>0.6711899791231734</v>
       </c>
       <c r="AP6">
-        <v>1.505959231844781</v>
+        <v>-90.03862212943633</v>
       </c>
     </row>
     <row r="7">
@@ -1183,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>eBullion, Inc. (OTCPK:EBML)</t>
+          <t>LFG Investment Holdings Limited (SEHK:3938)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1198,103 +1219,103 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3335930633616714</v>
+        <v>0.0005089822449207174</v>
       </c>
       <c r="J7">
-        <v>0.3335930633616714</v>
+        <v>0.0003946456536704114</v>
       </c>
       <c r="K7">
-        <v>-0.665</v>
+        <v>2.7</v>
       </c>
       <c r="L7">
-        <v>-0.6333333333333333</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>4.471</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.3170921985815603</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.655925925925926</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>3.88</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.275177304964539</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.437037037037037</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.5910000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.1321851934690226</v>
       </c>
       <c r="U7">
-        <v>1.05</v>
+        <v>4.26</v>
       </c>
       <c r="V7">
-        <v>0.009308510638297874</v>
+        <v>0.3021276595744681</v>
       </c>
       <c r="W7">
-        <v>-0.2782426778242678</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="X7">
-        <v>0.04417976927097692</v>
+        <v>0.03588182449729265</v>
       </c>
       <c r="Y7">
-        <v>-0.3224224470952447</v>
+        <v>0.08573979712432897</v>
       </c>
       <c r="Z7">
-        <v>0.4644709746073538</v>
+        <v>21.44293054414734</v>
       </c>
       <c r="AA7">
-        <v>0.1549442952618482</v>
+        <v>0.008462359341204257</v>
       </c>
       <c r="AB7">
-        <v>0.04412052567577075</v>
+        <v>0.03464097841018724</v>
       </c>
       <c r="AC7">
-        <v>0.1108237695860775</v>
+        <v>-0.02617861906898299</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="AE7">
-        <v>0.7486364173512251</v>
+        <v>0.02895208305983624</v>
       </c>
       <c r="AF7">
-        <v>0.7486364173512251</v>
+        <v>3.398952083059836</v>
       </c>
       <c r="AG7">
-        <v>-0.3013635826487749</v>
+        <v>-0.8610479169401635</v>
       </c>
       <c r="AH7">
-        <v>0.00659309033531315</v>
+        <v>0.1942374644450996</v>
       </c>
       <c r="AI7">
-        <v>0.3147334379858202</v>
+        <v>0.1343514969276444</v>
       </c>
       <c r="AJ7">
-        <v>-0.002678819870587286</v>
+        <v>-0.06503897827698421</v>
       </c>
       <c r="AK7">
-        <v>-0.226821708868687</v>
+        <v>-0.04092636902925707</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.048</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>280.8333333333333</v>
       </c>
       <c r="AP7">
-        <v>-0.6027271652975499</v>
-      </c>
-      <c r="AQ7">
-        <v>-0</v>
+        <v>-71.75399307834695</v>
       </c>
     </row>
     <row r="8">
@@ -1305,7 +1326,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Innovax Holdings Limited (SEHK:2680)</t>
+          <t>Futu Holdings Limited (NasdaqGM:FUTU)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1314,22 +1335,22 @@
         </is>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.1863543788187373</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01429287523021943</v>
+        <v>0.009434279163010376</v>
       </c>
       <c r="J8">
-        <v>0.00969575161816055</v>
+        <v>0.008656772723917763</v>
       </c>
       <c r="K8">
-        <v>1.16</v>
+        <v>108</v>
       </c>
       <c r="L8">
-        <v>0.09206349206349206</v>
+        <v>0.3665987780040733</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1353,55 +1374,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>18.6</v>
+        <v>132</v>
       </c>
       <c r="V8">
-        <v>0.09841269841269842</v>
+        <v>0.02132023969117956</v>
       </c>
       <c r="W8">
-        <v>0.2164179104477612</v>
+        <v>0.3395158755108456</v>
       </c>
       <c r="X8">
-        <v>0.0441038410590387</v>
+        <v>0.04324179442379994</v>
       </c>
       <c r="Y8">
-        <v>0.1723140693887225</v>
+        <v>0.2962740810870457</v>
       </c>
       <c r="Z8">
-        <v>9.658511368602689</v>
+        <v>0.6464732548756638</v>
       </c>
       <c r="AA8">
-        <v>0.09364652723115159</v>
+        <v>0.005596372039549983</v>
       </c>
       <c r="AB8">
-        <v>0.04417329727735369</v>
+        <v>0.03651841127326379</v>
       </c>
       <c r="AC8">
-        <v>0.0494732299537979</v>
+        <v>-0.03092203923371381</v>
       </c>
       <c r="AD8">
-        <v>0.238</v>
+        <v>3936.2</v>
       </c>
       <c r="AE8">
-        <v>0.3245488604961758</v>
+        <v>22.50330679288572</v>
       </c>
       <c r="AF8">
-        <v>0.5625488604961758</v>
+        <v>3958.703306792886</v>
       </c>
       <c r="AG8">
-        <v>-18.03745113950383</v>
+        <v>3826.703306792886</v>
       </c>
       <c r="AH8">
-        <v>0.002967616039548875</v>
+        <v>0.3900199031603788</v>
       </c>
       <c r="AI8">
-        <v>0.01922419209543311</v>
+        <v>0.8432814669043392</v>
       </c>
       <c r="AJ8">
-        <v>-0.1055052773822541</v>
+        <v>0.3819826356214238</v>
       </c>
       <c r="AK8">
-        <v>-1.691664101660629</v>
+        <v>0.8387472674972357</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1410,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.9714285714285714</v>
+        <v>540.6868131868132</v>
       </c>
       <c r="AP8">
-        <v>-73.62224954899521</v>
+        <v>525.6460586253963</v>
       </c>
     </row>
     <row r="9">
@@ -1424,7 +1445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VBG International Holdings Limited (SEHK:8365)</t>
+          <t>CLSA Premium Limited (SEHK:6877)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1433,7 +1454,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.261</v>
+        <v>-0.455</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1442,91 +1463,88 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1067083971235241</v>
+        <v>0.04646733442602446</v>
       </c>
       <c r="J9">
-        <v>0.1067083971235241</v>
+        <v>0.04646733442602446</v>
       </c>
       <c r="K9">
-        <v>-2.97</v>
+        <v>-16</v>
       </c>
       <c r="L9">
-        <v>-0.541970802919708</v>
+        <v>-51.94805194805195</v>
       </c>
       <c r="M9">
-        <v>1.96</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.1026178010471204</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>-0.6599326599326599</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.96</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.1026178010471204</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>-0.6599326599326599</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>4.37</v>
+        <v>36.3</v>
       </c>
       <c r="V9">
-        <v>0.2287958115183246</v>
+        <v>0.6849056603773584</v>
       </c>
       <c r="W9">
-        <v>-0.1778443113772455</v>
+        <v>-0.2527646129541865</v>
       </c>
       <c r="X9">
-        <v>0.04618829965065153</v>
+        <v>0.03222560703885213</v>
       </c>
       <c r="Y9">
-        <v>-0.2240326110278971</v>
+        <v>-0.2849902199930386</v>
       </c>
       <c r="Z9">
-        <v>0.8648730657089421</v>
+        <v>0.01183775800507925</v>
       </c>
       <c r="AA9">
-        <v>0.09228921855710956</v>
+        <v>0.0005500690600763657</v>
       </c>
       <c r="AB9">
-        <v>0.04583858394767352</v>
+        <v>0.03196805703599123</v>
       </c>
       <c r="AC9">
-        <v>0.04645063460943604</v>
+        <v>-0.03141798797591486</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AE9">
-        <v>1.976189918815439</v>
+        <v>0.04844030498392233</v>
       </c>
       <c r="AF9">
-        <v>1.976189918815439</v>
+        <v>2.288440304983923</v>
       </c>
       <c r="AG9">
-        <v>-2.393810081184562</v>
+        <v>-34.01155969501608</v>
       </c>
       <c r="AH9">
-        <v>0.09376409713651451</v>
+        <v>0.04139093619498674</v>
       </c>
       <c r="AI9">
-        <v>0.1511288786018535</v>
+        <v>0.04633554513672281</v>
       </c>
       <c r="AJ9">
-        <v>-0.1432888104838626</v>
+        <v>-1.791171847120535</v>
       </c>
       <c r="AK9">
-        <v>-0.2749549577377314</v>
+        <v>-2.598595317890159</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1535,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>93.33333333333334</v>
       </c>
       <c r="AP9">
-        <v>-2.442663348147512</v>
+        <v>-1417.14832062567</v>
       </c>
     </row>
     <row r="10">
@@ -1558,22 +1576,22 @@
         </is>
       </c>
       <c r="G10">
-        <v>-0.1826625386996904</v>
+        <v>-0</v>
       </c>
       <c r="H10">
-        <v>-0.1826625386996904</v>
+        <v>-0</v>
       </c>
       <c r="I10">
-        <v>0.4983274189758483</v>
+        <v>-0</v>
       </c>
       <c r="J10">
-        <v>0.4983274189758483</v>
+        <v>-0</v>
       </c>
       <c r="K10">
-        <v>-13</v>
+        <v>-5.43</v>
       </c>
       <c r="L10">
-        <v>-1.341589267285862</v>
+        <v>0.3668918918918919</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1597,73 +1615,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>16.6</v>
+        <v>11.5</v>
       </c>
       <c r="V10">
-        <v>0.2122762148337596</v>
+        <v>0.1343457943925234</v>
       </c>
       <c r="W10">
-        <v>-0.1399354144241119</v>
+        <v>-0.06720297029702971</v>
       </c>
       <c r="X10">
-        <v>0.04441479691037679</v>
+        <v>0.03149688860045412</v>
       </c>
       <c r="Y10">
-        <v>-0.1843502113344888</v>
+        <v>-0.09869985889748382</v>
       </c>
       <c r="Z10">
-        <v>0.1304768700480635</v>
+        <v>-0.2282576844183285</v>
       </c>
       <c r="AA10">
-        <v>0.06502020188709864</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04438026913474136</v>
+        <v>0.03148942730286043</v>
       </c>
       <c r="AC10">
-        <v>0.02063993275235728</v>
+        <v>-0.03148942730286043</v>
       </c>
       <c r="AD10">
-        <v>0.639</v>
+        <v>0.32</v>
       </c>
       <c r="AE10">
-        <v>0.7660365506201532</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.405036550620153</v>
+        <v>0.32</v>
       </c>
       <c r="AG10">
-        <v>-15.19496344937985</v>
+        <v>-11.18</v>
       </c>
       <c r="AH10">
-        <v>0.01765009616855967</v>
+        <v>0.0037243947858473</v>
       </c>
       <c r="AI10">
-        <v>0.01709185482515978</v>
+        <v>0.003582624272279445</v>
       </c>
       <c r="AJ10">
-        <v>-0.2411706155772445</v>
+        <v>-0.1502284332168772</v>
       </c>
       <c r="AK10">
-        <v>-0.2316127579268335</v>
+        <v>-0.1436648676432794</v>
       </c>
       <c r="AL10">
-        <v>0.303</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>-0.007000000000000006</v>
-      </c>
-      <c r="AN10">
-        <v>0.1257378984651712</v>
-      </c>
-      <c r="AO10">
-        <v>15.28052805280528</v>
-      </c>
-      <c r="AP10">
-        <v>-2.989957388701268</v>
-      </c>
-      <c r="AQ10">
-        <v>-661.4285714285709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1674,7 +1680,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LFG Investment Holdings Limited (SEHK:3938)</t>
+          <t>AMTD International Inc. (SGX:HKB)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1689,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0380830063545456</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.026724916740032</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>120.5</v>
       </c>
       <c r="L11">
-        <v>0.1818181818181818</v>
+        <v>0.7980132450331126</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1722,67 +1728,61 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>24.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="V11">
-        <v>0.5507900677200903</v>
+        <v>0.0311500838899617</v>
       </c>
       <c r="W11">
-        <v>0.6575342465753424</v>
+        <v>0.3558771411695215</v>
       </c>
       <c r="X11">
-        <v>0.04563249670842134</v>
+        <v>0.03151555324757267</v>
       </c>
       <c r="Y11">
-        <v>0.611901749866921</v>
+        <v>0.3243615879219489</v>
       </c>
       <c r="Z11">
-        <v>2.384168436415545</v>
+        <v>0.4683622828784119</v>
       </c>
       <c r="AA11">
-        <v>0.06371670295741771</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04488916416476714</v>
+        <v>0.03150599707196369</v>
       </c>
       <c r="AC11">
-        <v>0.01882753879265057</v>
+        <v>-0.03150599707196369</v>
       </c>
       <c r="AD11">
-        <v>1.51</v>
+        <v>15</v>
       </c>
       <c r="AE11">
-        <v>1.88652158059999</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>3.39652158059999</v>
+        <v>15</v>
       </c>
       <c r="AG11">
-        <v>-21.00347841940001</v>
+        <v>-83.40000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.07121109607249612</v>
+        <v>0.00472604681937049</v>
       </c>
       <c r="AI11">
-        <v>0.1326946542288882</v>
+        <v>0.0168218010541662</v>
       </c>
       <c r="AJ11">
-        <v>-0.9015714361791463</v>
+        <v>-0.02711754186311169</v>
       </c>
       <c r="AK11">
-        <v>-17.55378152800878</v>
+        <v>-0.1051304676667087</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>1.715909090909091</v>
-      </c>
-      <c r="AP11">
-        <v>-23.86758911295455</v>
       </c>
     </row>
     <row r="12">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLSA Premium Limited (SEHK:6877)</t>
+          <t>Innovax Holdings Limited (SEHK:2680)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1801,9 +1801,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D12">
-        <v>-0.441</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1811,16 +1808,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.344166559080805</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3.344166559080805</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-6.82</v>
+        <v>-0.35</v>
       </c>
       <c r="L12">
-        <v>-24.01408450704226</v>
+        <v>-0.03668763102725367</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1844,67 +1841,61 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>41.2</v>
+        <v>5.75</v>
       </c>
       <c r="V12">
-        <v>0.4934131736526947</v>
+        <v>0.2060931899641577</v>
       </c>
       <c r="W12">
-        <v>-0.09660056657223798</v>
+        <v>-0.01219512195121951</v>
       </c>
       <c r="X12">
-        <v>0.04607201854503513</v>
+        <v>0.0316139084901529</v>
       </c>
       <c r="Y12">
-        <v>-0.1426725851172731</v>
+        <v>-0.04380903044137241</v>
       </c>
       <c r="Z12">
-        <v>0.01131416248723725</v>
+        <v>0.9228090539756241</v>
       </c>
       <c r="AA12">
-        <v>0.03783644383382533</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04510239226254967</v>
+        <v>0.03159276565276237</v>
       </c>
       <c r="AC12">
-        <v>-0.007265948428724349</v>
+        <v>-0.03159276565276237</v>
       </c>
       <c r="AD12">
-        <v>3.87</v>
+        <v>0.281</v>
       </c>
       <c r="AE12">
-        <v>4.301283486105257</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>8.171283486105256</v>
+        <v>0.281</v>
       </c>
       <c r="AG12">
-        <v>-33.02871651389475</v>
+        <v>-5.469</v>
       </c>
       <c r="AH12">
-        <v>0.08913678499269391</v>
+        <v>0.009971257230048616</v>
       </c>
       <c r="AI12">
-        <v>0.1143296032691765</v>
+        <v>0.009729580000692498</v>
       </c>
       <c r="AJ12">
-        <v>-0.6544061143796266</v>
+        <v>-0.2438143640497526</v>
       </c>
       <c r="AK12">
-        <v>-1.091090720651313</v>
+        <v>-0.2364359517530587</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>2.138121546961326</v>
-      </c>
-      <c r="AP12">
-        <v>-18.24790967618494</v>
       </c>
     </row>
     <row r="13">
@@ -1930,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02197049611125044</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01428082247231278</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.091</v>
+        <v>-0.147</v>
       </c>
       <c r="L13">
-        <v>0.0122972972972973</v>
+        <v>-0.01975806451612903</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1948,7 +1939,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -1957,73 +1948,67 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>7.69</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="V13">
-        <v>0.5267123287671234</v>
+        <v>1.477954144620812</v>
       </c>
       <c r="W13">
-        <v>0.008272727272727272</v>
+        <v>-0.01336363636363636</v>
       </c>
       <c r="X13">
-        <v>0.04502113668289685</v>
+        <v>0.03175042624237908</v>
       </c>
       <c r="Y13">
-        <v>-0.03674840941016957</v>
+        <v>-0.04511406260601544</v>
       </c>
       <c r="Z13">
-        <v>2.14985560107009</v>
+        <v>2.045642012647787</v>
       </c>
       <c r="AA13">
-        <v>0.03070170617998925</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04716368652868304</v>
+        <v>0.03171169635703724</v>
       </c>
       <c r="AC13">
-        <v>-0.01646198034869378</v>
+        <v>-0.03171169635703724</v>
       </c>
       <c r="AD13">
-        <v>0.327</v>
+        <v>0.099</v>
       </c>
       <c r="AE13">
-        <v>0.3620916438837338</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.6890916438837338</v>
+        <v>0.099</v>
       </c>
       <c r="AG13">
-        <v>-7.000908356116266</v>
+        <v>-8.281000000000001</v>
       </c>
       <c r="AH13">
-        <v>0.04507080341554489</v>
+        <v>0.0171606864274571</v>
       </c>
       <c r="AI13">
-        <v>0.05895168460282352</v>
+        <v>0.008462261731771947</v>
       </c>
       <c r="AJ13">
-        <v>-0.921282264275767</v>
+        <v>3.171581769436997</v>
       </c>
       <c r="AK13">
-        <v>-1.75062463667807</v>
+        <v>-2.495028623079242</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>1.391489361702128</v>
-      </c>
-      <c r="AP13">
-        <v>-29.79109938772879</v>
       </c>
     </row>
     <row r="14">
@@ -2034,7 +2019,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PF Group Holdings Limited (SEHK:8221)</t>
+          <t>Pinestone Capital Limited (SEHK:804)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2042,6 +2027,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D14">
+        <v>-0.0367</v>
+      </c>
+      <c r="E14">
+        <v>-0.132</v>
+      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -2049,100 +2040,97 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.07045958387322193</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0586553159256302</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.28</v>
+        <v>0.98</v>
       </c>
       <c r="L14">
-        <v>0.1805359661495063</v>
+        <v>0.2506393861892583</v>
       </c>
       <c r="M14">
-        <v>-0</v>
+        <v>7.742</v>
       </c>
       <c r="N14">
-        <v>-0</v>
+        <v>0.553</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>7.9</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>0.632</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>0.04514285714285714</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0.6448979591836735</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>7.11</v>
+      </c>
+      <c r="T14">
+        <v>0.9183673469387755</v>
       </c>
       <c r="U14">
-        <v>22.7</v>
+        <v>3.81</v>
       </c>
       <c r="V14">
-        <v>1.474025974025974</v>
+        <v>0.2721428571428571</v>
       </c>
       <c r="W14">
-        <v>0.03710144927536232</v>
+        <v>0.028</v>
       </c>
       <c r="X14">
-        <v>0.04715654690923508</v>
+        <v>0.03189897326154605</v>
       </c>
       <c r="Y14">
-        <v>-0.01005509763387277</v>
+        <v>-0.003898973261546045</v>
       </c>
       <c r="Z14">
-        <v>0.3448073322484449</v>
+        <v>0.1202041318248893</v>
       </c>
       <c r="AA14">
-        <v>0.02022478300650627</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04559492589959405</v>
+        <v>0.03175237019167047</v>
       </c>
       <c r="AC14">
-        <v>-0.02537014289308777</v>
+        <v>-0.03175237019167047</v>
       </c>
       <c r="AD14">
-        <v>1.05</v>
+        <v>0.357</v>
       </c>
       <c r="AE14">
-        <v>1.262207751694283</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>2.312207751694283</v>
+        <v>0.357</v>
       </c>
       <c r="AG14">
-        <v>-20.38779224830571</v>
+        <v>-3.453</v>
       </c>
       <c r="AH14">
-        <v>0.1305431702308881</v>
+        <v>0.02486591906387128</v>
       </c>
       <c r="AI14">
-        <v>0.06082803100515052</v>
+        <v>0.01245768922078375</v>
       </c>
       <c r="AJ14">
-        <v>4.087538380378849</v>
+        <v>-0.3273916753579217</v>
       </c>
       <c r="AK14">
-        <v>-1.33147306899946</v>
+        <v>-0.1389704994566749</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>1.396276595744681</v>
-      </c>
-      <c r="AP14">
-        <v>-27.11142586210866</v>
       </c>
     </row>
     <row r="15">
@@ -2153,7 +2141,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>China Fortune Financial Group Limited (SEHK:290)</t>
+          <t>Value Convergence Holdings Limited (SEHK:821)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2162,7 +2150,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.142</v>
+        <v>-0.081</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2171,16 +2159,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1609101253341614</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1609101253341614</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-7.82</v>
+        <v>-10.3</v>
       </c>
       <c r="L15">
-        <v>-0.7922998986828775</v>
+        <v>-1.330749354005168</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -2204,67 +2192,61 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>40.2</v>
+        <v>6.46</v>
       </c>
       <c r="V15">
-        <v>0.5800865800865802</v>
+        <v>0.099537750385208</v>
       </c>
       <c r="W15">
-        <v>-0.1974747474747475</v>
+        <v>-0.08286403861625101</v>
       </c>
       <c r="X15">
-        <v>0.07013090667671061</v>
+        <v>0.03238723998851777</v>
       </c>
       <c r="Y15">
-        <v>-0.2676056541514581</v>
+        <v>-0.1152512786047688</v>
       </c>
       <c r="Z15">
-        <v>0.1213289610056536</v>
+        <v>0.0673676148034676</v>
       </c>
       <c r="AA15">
-        <v>0.01952305832208331</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.048900951248005</v>
+        <v>0.03224439830111579</v>
       </c>
       <c r="AC15">
-        <v>-0.02937789292592169</v>
+        <v>-0.03224439830111579</v>
       </c>
       <c r="AD15">
-        <v>83.09999999999999</v>
+        <v>3.37</v>
       </c>
       <c r="AE15">
-        <v>4.059085314759133</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>87.15908531475912</v>
+        <v>3.37</v>
       </c>
       <c r="AG15">
-        <v>46.95908531475912</v>
+        <v>-3.09</v>
       </c>
       <c r="AH15">
-        <v>0.5570727013993173</v>
+        <v>0.04936282408085542</v>
       </c>
       <c r="AI15">
-        <v>0.6491857523863058</v>
+        <v>0.03453930511427693</v>
       </c>
       <c r="AJ15">
-        <v>0.4039175535195584</v>
+        <v>-0.04999191069406245</v>
       </c>
       <c r="AK15">
-        <v>0.4992509246460917</v>
+        <v>-0.03391504774448469</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>34.625</v>
-      </c>
-      <c r="AP15">
-        <v>19.5662855478163</v>
       </c>
     </row>
     <row r="16">
@@ -2275,7 +2257,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASH Financial Services Group Limited (SEHK:510)</t>
+          <t>CL Group (Holdings) Limited (SEHK:8098)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2284,7 +2266,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.141</v>
+        <v>-0.07580000000000001</v>
+      </c>
+      <c r="E16">
+        <v>-0.00628</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2293,103 +2278,97 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1274097242194708</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1274097242194708</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-15.2</v>
+        <v>4.22</v>
       </c>
       <c r="L16">
-        <v>-1.125925925925926</v>
+        <v>0.7152542372881355</v>
       </c>
       <c r="M16">
-        <v>0.053</v>
+        <v>2.84</v>
       </c>
       <c r="N16">
-        <v>0.002137096774193548</v>
+        <v>0.1518716577540107</v>
       </c>
       <c r="O16">
-        <v>-0.003486842105263158</v>
+        <v>0.6729857819905213</v>
       </c>
       <c r="P16">
-        <v>-0</v>
+        <v>2.84</v>
       </c>
       <c r="Q16">
-        <v>-0</v>
+        <v>0.1518716577540107</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.6729857819905213</v>
       </c>
       <c r="S16">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>17.8</v>
+        <v>1.28</v>
       </c>
       <c r="V16">
-        <v>0.717741935483871</v>
+        <v>0.06844919786096257</v>
       </c>
       <c r="W16">
-        <v>-0.1765389082462253</v>
+        <v>0.1450171821305842</v>
       </c>
       <c r="X16">
-        <v>0.05863745441117738</v>
+        <v>0.03301859375137613</v>
       </c>
       <c r="Y16">
-        <v>-0.2351763626574027</v>
+        <v>0.111998588379208</v>
       </c>
       <c r="Z16">
-        <v>0.138675107207816</v>
+        <v>0.194078947368421</v>
       </c>
       <c r="AA16">
-        <v>0.01766855716545339</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.04895496715796038</v>
+        <v>0.03246247679799007</v>
       </c>
       <c r="AC16">
-        <v>-0.03128640999250699</v>
+        <v>-0.03246247679799007</v>
       </c>
       <c r="AD16">
-        <v>15</v>
+        <v>1.61</v>
       </c>
       <c r="AE16">
-        <v>2.449843615185718</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>17.44984361518572</v>
+        <v>1.61</v>
       </c>
       <c r="AG16">
-        <v>-0.3501563848142837</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="AH16">
-        <v>0.4130155788059244</v>
+        <v>0.07927129492860661</v>
       </c>
       <c r="AI16">
-        <v>0.1861319757162685</v>
+        <v>0.04952322362350046</v>
       </c>
       <c r="AJ16">
-        <v>-0.01432141613359043</v>
+        <v>0.01734104046242775</v>
       </c>
       <c r="AK16">
-        <v>-0.004610363473405125</v>
+        <v>0.01056676272814602</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>6.787330316742081</v>
-      </c>
-      <c r="AP16">
-        <v>-0.1584418030833863</v>
       </c>
     </row>
     <row r="17">
@@ -2400,7 +2379,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gemini Investments (Holdings) Limited (SEHK:174)</t>
+          <t>Power Financial Group Limited (SEHK:397)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2409,25 +2388,25 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.06610000000000001</v>
+        <v>0.0392</v>
       </c>
       <c r="G17">
-        <v>0.6016260162601625</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.6016260162601625</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4357832122218301</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4357832122218301</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>-23.7</v>
+        <v>-9.57</v>
       </c>
       <c r="L17">
-        <v>-0.9634146341463414</v>
+        <v>-0.7844262295081967</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2451,73 +2430,61 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>135.8</v>
+        <v>33.4</v>
       </c>
       <c r="V17">
-        <v>4.191358024691358</v>
+        <v>1.368852459016394</v>
       </c>
       <c r="W17">
-        <v>-0.05009511731135066</v>
+        <v>-0.05095846645367412</v>
       </c>
       <c r="X17">
-        <v>0.1243377368584608</v>
+        <v>0.03266969509369635</v>
       </c>
       <c r="Y17">
-        <v>-0.1744328541698114</v>
+        <v>-0.08362816154737047</v>
       </c>
       <c r="Z17">
-        <v>0.03459338253141335</v>
+        <v>0.07038312651078535</v>
       </c>
       <c r="AA17">
-        <v>0.01507521536115785</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.0509735729316038</v>
+        <v>0.03246966013089602</v>
       </c>
       <c r="AC17">
-        <v>-0.03589835757044595</v>
+        <v>-0.03246966013089602</v>
       </c>
       <c r="AD17">
-        <v>124.8</v>
+        <v>1.64</v>
       </c>
       <c r="AE17">
-        <v>0.618664896714901</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>125.4186648967149</v>
+        <v>1.64</v>
       </c>
       <c r="AG17">
-        <v>-10.38133510328511</v>
+        <v>-31.76</v>
       </c>
       <c r="AH17">
-        <v>0.7947010892456585</v>
+        <v>0.0629800307219662</v>
       </c>
       <c r="AI17">
-        <v>0.1484387434050193</v>
+        <v>0.009088893815118598</v>
       </c>
       <c r="AJ17">
-        <v>-0.4714788635905882</v>
+        <v>4.315217391304348</v>
       </c>
       <c r="AK17">
-        <v>-0.01463977133474153</v>
+        <v>-0.2159956474428726</v>
       </c>
       <c r="AL17">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>3.48</v>
-      </c>
-      <c r="AN17">
-        <v>11.30025353132923</v>
-      </c>
-      <c r="AO17">
-        <v>2.959770114942529</v>
-      </c>
-      <c r="AP17">
-        <v>-0.9399977456795644</v>
-      </c>
-      <c r="AQ17">
-        <v>2.959770114942529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2528,7 +2495,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shenwan Hongyuan (H.K.) Limited (SEHK:218)</t>
+          <t>Sunwah Kingsway Capital Holdings Limited (SEHK:188)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2537,10 +2504,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.09810000000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.175</v>
+        <v>-0.0377</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2549,34 +2513,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03251544214369988</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03059977332342648</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>15.6</v>
+        <v>-5.28</v>
       </c>
       <c r="L18">
-        <v>0.2071713147410359</v>
+        <v>-0.3854014598540146</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3.36</v>
       </c>
       <c r="N18">
-        <v>0.01596806387225549</v>
+        <v>0.0935933147632312</v>
       </c>
       <c r="O18">
-        <v>0.2564102564102564</v>
+        <v>-0.6363636363636364</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>3.36</v>
       </c>
       <c r="Q18">
-        <v>0.01596806387225549</v>
+        <v>0.0935933147632312</v>
       </c>
       <c r="R18">
-        <v>0.2564102564102564</v>
+        <v>-0.6363636363636364</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2585,67 +2549,61 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>54.6</v>
+        <v>17.6</v>
       </c>
       <c r="V18">
-        <v>0.2179640718562874</v>
+        <v>0.4902506963788301</v>
       </c>
       <c r="W18">
-        <v>0.05652173913043478</v>
+        <v>-0.0380952380952381</v>
       </c>
       <c r="X18">
-        <v>0.05084535236232536</v>
+        <v>0.03560180713292317</v>
       </c>
       <c r="Y18">
-        <v>0.005676386768109422</v>
+        <v>-0.07369704522816127</v>
       </c>
       <c r="Z18">
-        <v>0.2318650035772254</v>
+        <v>0.1199019779450376</v>
       </c>
       <c r="AA18">
-        <v>0.007095016551098566</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.04619623725531339</v>
+        <v>0.03281747018782002</v>
       </c>
       <c r="AC18">
-        <v>-0.03910122070421482</v>
+        <v>-0.03281747018782002</v>
       </c>
       <c r="AD18">
-        <v>72.5</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AE18">
-        <v>9.657936032896995</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>82.157936032897</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AG18">
-        <v>27.557936032897</v>
+        <v>-9.490000000000002</v>
       </c>
       <c r="AH18">
-        <v>0.2469742252737728</v>
+        <v>0.184276300840718</v>
       </c>
       <c r="AI18">
-        <v>0.1423984850573448</v>
+        <v>0.06020339989607305</v>
       </c>
       <c r="AJ18">
-        <v>0.09910861177375863</v>
+        <v>-0.3593335857629687</v>
       </c>
       <c r="AK18">
-        <v>0.0527568055004365</v>
+        <v>-0.08103492443002308</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>16.55251141552511</v>
-      </c>
-      <c r="AP18">
-        <v>6.291766217556392</v>
       </c>
     </row>
     <row r="19">
@@ -2656,7 +2614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mason Group Holdings Limited (SEHK:273)</t>
+          <t>Get Nice Holdings Limited (SEHK:64)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2665,10 +2623,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>1.012</v>
+        <v>0.0029</v>
       </c>
       <c r="E19">
-        <v>-0.412</v>
+        <v>-0.235</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2677,91 +2635,91 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01248671136657003</v>
+        <v>0.0009571846119136575</v>
       </c>
       <c r="J19">
-        <v>0.01107155074502542</v>
+        <v>0.0007458890876240037</v>
       </c>
       <c r="K19">
-        <v>5.81</v>
+        <v>13.5</v>
       </c>
       <c r="L19">
-        <v>0.01409509946627851</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="M19">
-        <v>0.699</v>
+        <v>9.662700000000001</v>
       </c>
       <c r="N19">
-        <v>0.001978488536654401</v>
+        <v>0.03875932611311673</v>
       </c>
       <c r="O19">
-        <v>0.1203098106712565</v>
+        <v>0.7157555555555556</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>9.662700000000001</v>
       </c>
       <c r="Q19">
-        <v>-0</v>
+        <v>0.03875932611311673</v>
       </c>
       <c r="R19">
-        <v>-0</v>
+        <v>0.7157555555555556</v>
       </c>
       <c r="S19">
-        <v>0.699</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>182.5</v>
+        <v>61.9</v>
       </c>
       <c r="V19">
-        <v>0.5165581658647042</v>
+        <v>0.2482952266345768</v>
       </c>
       <c r="W19">
-        <v>0.007142857142857143</v>
+        <v>0.01914893617021277</v>
       </c>
       <c r="X19">
-        <v>0.05204549852729015</v>
+        <v>0.03588759163465737</v>
       </c>
       <c r="Y19">
-        <v>-0.04490264138443301</v>
+        <v>-0.01673865546444461</v>
       </c>
       <c r="Z19">
-        <v>0.721493538413215</v>
+        <v>0.09348882115863937</v>
       </c>
       <c r="AA19">
-        <v>0.007988052322749859</v>
+        <v>6.973229151706117e-05</v>
       </c>
       <c r="AB19">
-        <v>0.04735384789148077</v>
+        <v>0.03289411655914263</v>
       </c>
       <c r="AC19">
-        <v>-0.03936579556873091</v>
+        <v>-0.03282438426762557</v>
       </c>
       <c r="AD19">
-        <v>114.7</v>
+        <v>60.1</v>
       </c>
       <c r="AE19">
-        <v>21.61488787349918</v>
+        <v>0.07417951649358644</v>
       </c>
       <c r="AF19">
-        <v>136.3148878734992</v>
+        <v>60.17417951649359</v>
       </c>
       <c r="AG19">
-        <v>-46.18511212650083</v>
+        <v>-1.725820483506411</v>
       </c>
       <c r="AH19">
-        <v>0.2784124650815736</v>
+        <v>0.1944400647915332</v>
       </c>
       <c r="AI19">
-        <v>0.1385856289428494</v>
+        <v>0.06563686113872604</v>
       </c>
       <c r="AJ19">
-        <v>-0.1503838268678284</v>
+        <v>-0.006970922762934715</v>
       </c>
       <c r="AK19">
-        <v>-0.05765104709150497</v>
+        <v>-0.002018800573065048</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2770,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>12.11193241816262</v>
+        <v>790.7894736842105</v>
       </c>
       <c r="AP19">
-        <v>-4.876991776821629</v>
+        <v>-22.7081642566633</v>
       </c>
     </row>
     <row r="20">
@@ -2784,7 +2742,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pinestone Capital Limited (SEHK:804)</t>
+          <t>Get Nice Financial Group Limited (SEHK:1469)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2799,103 +2757,97 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.04517932859289293</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04517932859289293</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>-0.372</v>
+        <v>19.5</v>
       </c>
       <c r="L20">
-        <v>-0.1244147157190635</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M20">
-        <v>0.141</v>
+        <v>16.1</v>
       </c>
       <c r="N20">
-        <v>0.001587837837837838</v>
+        <v>0.07235955056179776</v>
       </c>
       <c r="O20">
-        <v>-0.3790322580645161</v>
+        <v>0.8256410256410257</v>
       </c>
       <c r="P20">
-        <v>-0</v>
+        <v>16.1</v>
       </c>
       <c r="Q20">
-        <v>-0</v>
+        <v>0.07235955056179776</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>0.8256410256410257</v>
       </c>
       <c r="S20">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>3.08</v>
+        <v>53</v>
       </c>
       <c r="V20">
-        <v>0.03468468468468468</v>
+        <v>0.2382022471910112</v>
       </c>
       <c r="W20">
-        <v>-0.01050847457627119</v>
+        <v>0.03894547633313361</v>
       </c>
       <c r="X20">
-        <v>0.04433586079269934</v>
+        <v>0.03823721722322748</v>
       </c>
       <c r="Y20">
-        <v>-0.05484433536897053</v>
+        <v>0.0007082591099061286</v>
       </c>
       <c r="Z20">
-        <v>0.1052758738803599</v>
+        <v>0.08841866616285658</v>
       </c>
       <c r="AA20">
-        <v>0.004756293298944733</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.04430964605243336</v>
+        <v>0.03345860002720914</v>
       </c>
       <c r="AC20">
-        <v>-0.03955335275348863</v>
+        <v>-0.03345860002720914</v>
       </c>
       <c r="AD20">
-        <v>0.608</v>
+        <v>82</v>
       </c>
       <c r="AE20">
-        <v>0.6495690375362507</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1.257569037536251</v>
+        <v>82</v>
       </c>
       <c r="AG20">
-        <v>-1.822430962463749</v>
+        <v>29</v>
       </c>
       <c r="AH20">
-        <v>0.01396405711342366</v>
+        <v>0.2692939244663383</v>
       </c>
       <c r="AI20">
-        <v>0.03468431753475616</v>
+        <v>0.1380703822192288</v>
       </c>
       <c r="AJ20">
-        <v>-0.02095288454977693</v>
+        <v>0.1153081510934394</v>
       </c>
       <c r="AK20">
-        <v>-0.05492961103937114</v>
+        <v>0.05361434645960437</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>2.294339622641509</v>
-      </c>
-      <c r="AP20">
-        <v>-6.877097971561318</v>
       </c>
     </row>
     <row r="21">
@@ -2906,7 +2858,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CL Group (Holdings) Limited (SEHK:8098)</t>
+          <t>VBG International Holdings Limited (SEHK:8365)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2915,10 +2867,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>-0.0414</v>
-      </c>
-      <c r="E21">
-        <v>-0.09820000000000001</v>
+        <v>-0.0126</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2927,103 +2876,94 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03049099983902376</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02637168595348678</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.3</v>
+        <v>-4.55</v>
       </c>
       <c r="L21">
-        <v>0.2313167259786477</v>
+        <v>-0.571608040201005</v>
       </c>
       <c r="M21">
-        <v>2.2</v>
+        <v>-0</v>
       </c>
       <c r="N21">
-        <v>0.09053497942386832</v>
+        <v>-0</v>
       </c>
       <c r="O21">
-        <v>1.692307692307692</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>-0</v>
       </c>
       <c r="Q21">
-        <v>0.09053497942386832</v>
+        <v>-0</v>
       </c>
       <c r="R21">
-        <v>1.692307692307692</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
-        <v>1.16</v>
+        <v>6.86</v>
       </c>
       <c r="V21">
-        <v>0.04773662551440329</v>
+        <v>1.036253776435045</v>
       </c>
       <c r="W21">
-        <v>0.04234527687296417</v>
+        <v>-0.4099099099099099</v>
       </c>
       <c r="X21">
-        <v>0.0468831463779987</v>
+        <v>0.03539110256830012</v>
       </c>
       <c r="Y21">
-        <v>-0.004537869505034528</v>
+        <v>-0.44530101247821</v>
       </c>
       <c r="Z21">
-        <v>0.1849401893773533</v>
+        <v>1.904306220095694</v>
       </c>
       <c r="AA21">
-        <v>0.004877184594437932</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.04547503262888399</v>
+        <v>0.03373304550761781</v>
       </c>
       <c r="AC21">
-        <v>-0.04059784803444606</v>
+        <v>-0.03373304550761781</v>
       </c>
       <c r="AD21">
-        <v>2.46</v>
+        <v>1.42</v>
       </c>
       <c r="AE21">
-        <v>0.8682029045234321</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>3.328202904523432</v>
+        <v>1.42</v>
       </c>
       <c r="AG21">
-        <v>2.168202904523432</v>
+        <v>-5.44</v>
       </c>
       <c r="AH21">
-        <v>0.120463966332697</v>
+        <v>0.1766169154228856</v>
       </c>
       <c r="AI21">
-        <v>0.1026329739678291</v>
+        <v>0.1740196078431372</v>
       </c>
       <c r="AJ21">
-        <v>0.0819172692738004</v>
+        <v>-4.610169491525425</v>
       </c>
       <c r="AK21">
-        <v>0.06934210165975889</v>
+        <v>-4.184615384615386</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>7.130434782608696</v>
-      </c>
-      <c r="AP21">
-        <v>6.28464610006792</v>
       </c>
     </row>
     <row r="22">
@@ -3034,7 +2974,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>China Gem Holdings Limited (SEHK:1191)</t>
+          <t>Gemini Investments (Holdings) Limited (SEHK:174)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3042,113 +2982,119 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D22">
+        <v>0.24</v>
+      </c>
       <c r="G22">
-        <v>0.471875</v>
+        <v>0.2021052631578947</v>
       </c>
       <c r="H22">
-        <v>0.471875</v>
+        <v>0.2021052631578947</v>
       </c>
       <c r="I22">
-        <v>0.1402027291220256</v>
+        <v>0.2010526315789474</v>
       </c>
       <c r="J22">
-        <v>0.1402027291220256</v>
+        <v>0.2010526315789474</v>
       </c>
       <c r="K22">
-        <v>-10.3</v>
+        <v>-5.11</v>
       </c>
       <c r="L22">
-        <v>-0.8046875</v>
+        <v>-0.2689473684210527</v>
       </c>
       <c r="M22">
-        <v>-0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="N22">
-        <v>-0</v>
+        <v>0.0009304812834224598</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>-0.01702544031311154</v>
       </c>
       <c r="P22">
-        <v>-0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="Q22">
-        <v>-0</v>
+        <v>0.0009304812834224598</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-0.01702544031311154</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
       <c r="U22">
-        <v>0.504</v>
+        <v>119</v>
       </c>
       <c r="V22">
-        <v>0.0149112426035503</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="W22">
-        <v>-0.1499272197962154</v>
+        <v>-0.01340503672612802</v>
       </c>
       <c r="X22">
-        <v>0.09623876359894873</v>
+        <v>0.06352001414678227</v>
       </c>
       <c r="Y22">
-        <v>-0.2461659833951642</v>
+        <v>-0.07692505087291028</v>
       </c>
       <c r="Z22">
-        <v>0.08517319334341944</v>
+        <v>0.02828222685323013</v>
       </c>
       <c r="AA22">
-        <v>0.01194151415478534</v>
+        <v>0.005686216135754689</v>
       </c>
       <c r="AB22">
-        <v>0.05255439480883833</v>
+        <v>0.03971100393373896</v>
       </c>
       <c r="AC22">
-        <v>-0.04061288065405298</v>
+        <v>-0.03402478779798427</v>
       </c>
       <c r="AD22">
-        <v>83.8</v>
+        <v>162.4</v>
       </c>
       <c r="AE22">
-        <v>1.252025336190365</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>85.05202533619037</v>
+        <v>162.4</v>
       </c>
       <c r="AG22">
-        <v>84.54802533619036</v>
+        <v>43.40000000000001</v>
       </c>
       <c r="AH22">
-        <v>0.7156127554041107</v>
+        <v>0.6346228995701446</v>
       </c>
       <c r="AI22">
-        <v>0.5795628724124721</v>
+        <v>0.1781092344812459</v>
       </c>
       <c r="AJ22">
-        <v>0.714401656436729</v>
+        <v>0.3170197224251279</v>
       </c>
       <c r="AK22">
-        <v>0.5781139618250162</v>
+        <v>0.05474268415741676</v>
       </c>
       <c r="AL22">
-        <v>7.21</v>
+        <v>2.09</v>
       </c>
       <c r="AM22">
-        <v>7.21</v>
+        <v>2.09</v>
       </c>
       <c r="AN22">
-        <v>35.58386411889597</v>
+        <v>41.53452685421995</v>
       </c>
       <c r="AO22">
-        <v>0.1803051317614424</v>
+        <v>1.827751196172249</v>
       </c>
       <c r="AP22">
-        <v>35.90149695804261</v>
+        <v>11.0997442455243</v>
       </c>
       <c r="AQ22">
-        <v>0.1803051317614424</v>
+        <v>1.827751196172249</v>
       </c>
     </row>
     <row r="23">
@@ -3159,7 +3105,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Value Convergence Holdings Limited (SEHK:821)</t>
+          <t>Mason Group Holdings Limited (SEHK:273)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3168,7 +3114,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>-0.141</v>
+        <v>-0.096</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3177,100 +3123,97 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1082870211782941</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1082870211782941</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>-30</v>
+        <v>-164.4</v>
       </c>
       <c r="L23">
-        <v>-5.813953488372093</v>
+        <v>-3.090225563909774</v>
       </c>
       <c r="M23">
-        <v>-0</v>
+        <v>7.24</v>
       </c>
       <c r="N23">
-        <v>-0</v>
+        <v>0.04216656959813629</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-0.04403892944038929</v>
       </c>
       <c r="P23">
-        <v>-0</v>
+        <v>3.85</v>
       </c>
       <c r="Q23">
-        <v>-0</v>
+        <v>0.02242283051834595</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-0.02341849148418491</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3.39</v>
+      </c>
+      <c r="T23">
+        <v>0.468232044198895</v>
       </c>
       <c r="U23">
-        <v>14.5</v>
+        <v>145.1</v>
       </c>
       <c r="V23">
-        <v>0.2660550458715596</v>
+        <v>0.8450786255096098</v>
       </c>
       <c r="W23">
-        <v>-0.2801120448179272</v>
+        <v>-0.2032389664977129</v>
       </c>
       <c r="X23">
-        <v>0.04680006219125789</v>
+        <v>0.03891750919179729</v>
       </c>
       <c r="Y23">
-        <v>-0.326912107009185</v>
+        <v>-0.2421564756895102</v>
       </c>
       <c r="Z23">
-        <v>0.03924067921315012</v>
+        <v>0.07445766270118964</v>
       </c>
       <c r="AA23">
-        <v>0.004249256261005033</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.04629056725980525</v>
+        <v>0.0351925451716181</v>
       </c>
       <c r="AC23">
-        <v>-0.04204131099880022</v>
+        <v>-0.0351925451716181</v>
       </c>
       <c r="AD23">
-        <v>5.35</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AE23">
-        <v>1.896194853600011</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>7.246194853600011</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AG23">
-        <v>-7.253805146399989</v>
+        <v>-75.5</v>
       </c>
       <c r="AH23">
-        <v>0.1173545166755735</v>
+        <v>0.2884376295068379</v>
       </c>
       <c r="AI23">
-        <v>0.05508479254504035</v>
+        <v>0.09432172381081447</v>
       </c>
       <c r="AJ23">
-        <v>-0.1535320499116824</v>
+        <v>-0.7848232848232849</v>
       </c>
       <c r="AK23">
-        <v>-0.06197386557908151</v>
+        <v>-0.127361673414305</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>5.70362473347548</v>
-      </c>
-      <c r="AP23">
-        <v>-7.733267746695084</v>
       </c>
     </row>
     <row r="24">
@@ -3281,7 +3224,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Scully Royalty Ltd. (NYSE:SRL)</t>
+          <t>First Shanghai Investments Limited (SEHK:227)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3290,10 +3233,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>-0.258</v>
-      </c>
-      <c r="E24">
-        <v>0.631</v>
+        <v>-0.04480000000000001</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3302,16 +3242,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.003609901205075595</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.002412470561440764</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>82.3</v>
+        <v>-5.83</v>
       </c>
       <c r="L24">
-        <v>0.8140454995054401</v>
+        <v>-0.1015679442508711</v>
       </c>
       <c r="M24">
         <v>-0</v>
@@ -3320,7 +3260,7 @@
         <v>-0</v>
       </c>
       <c r="O24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>-0</v>
@@ -3329,73 +3269,70 @@
         <v>-0</v>
       </c>
       <c r="R24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>49.7</v>
+        <v>62.4</v>
       </c>
       <c r="V24">
-        <v>0.3239895697522816</v>
+        <v>1.048739495798319</v>
       </c>
       <c r="W24">
-        <v>0.3430596081700709</v>
+        <v>-0.01700700116686114</v>
       </c>
       <c r="X24">
-        <v>0.04485008177904086</v>
+        <v>0.05490412863178577</v>
       </c>
       <c r="Y24">
-        <v>0.29820952639103</v>
+        <v>-0.07191112979864692</v>
       </c>
       <c r="Z24">
-        <v>0.3255669619646894</v>
+        <v>0.1476337448559671</v>
       </c>
       <c r="AA24">
-        <v>0.000785420711517518</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.04448806424834243</v>
+        <v>0.03564772950740492</v>
       </c>
       <c r="AC24">
-        <v>-0.04370264353682491</v>
+        <v>-0.03564772950740492</v>
       </c>
       <c r="AD24">
-        <v>2.94</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AE24">
-        <v>3.035194940834287</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>5.975194940834287</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AG24">
-        <v>-43.72480505916572</v>
+        <v>13.2</v>
       </c>
       <c r="AH24">
-        <v>0.03749137337872742</v>
+        <v>0.5595854922279793</v>
       </c>
       <c r="AI24">
-        <v>0.02025660137976274</v>
+        <v>0.1824764663287473</v>
       </c>
       <c r="AJ24">
-        <v>-0.3986754259498115</v>
+        <v>0.1815680880330124</v>
       </c>
       <c r="AK24">
-        <v>-0.1782683531031872</v>
+        <v>0.03751065643648763</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>3.024691358024691</v>
-      </c>
-      <c r="AP24">
-        <v>-44.9843673448207</v>
+        <v>-5.59</v>
+      </c>
+      <c r="AQ24">
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -3406,7 +3343,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sunwah Kingsway Capital Holdings Limited (SEHK:188)</t>
+          <t>Scully Royalty Ltd. (NYSE:SRL)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3415,7 +3352,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>-0.0398</v>
+        <v>-0.462</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3424,103 +3361,94 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.006561573071109749</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.006561573071109749</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>-4.2</v>
+        <v>-2.36</v>
       </c>
       <c r="L25">
-        <v>-0.2560975609756098</v>
+        <v>-0.05186813186813186</v>
       </c>
       <c r="M25">
-        <v>3.59</v>
+        <v>-0</v>
       </c>
       <c r="N25">
-        <v>0.08310185185185184</v>
+        <v>-0</v>
       </c>
       <c r="O25">
-        <v>-0.8547619047619047</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>3.59</v>
+        <v>-0</v>
       </c>
       <c r="Q25">
-        <v>0.08310185185185184</v>
+        <v>-0</v>
       </c>
       <c r="R25">
-        <v>-0.8547619047619047</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
-        <v>26.9</v>
+        <v>55</v>
       </c>
       <c r="V25">
-        <v>0.6226851851851851</v>
+        <v>0.8856682769726247</v>
       </c>
       <c r="W25">
-        <v>-0.02830188679245283</v>
+        <v>-0.008569353667392884</v>
       </c>
       <c r="X25">
-        <v>0.04552914943640325</v>
+        <v>0.04085957589906611</v>
       </c>
       <c r="Y25">
-        <v>-0.07383103622885609</v>
+        <v>-0.04942892956645899</v>
       </c>
       <c r="Z25">
-        <v>0.1343304903969848</v>
+        <v>0.1942120539525355</v>
       </c>
       <c r="AA25">
-        <v>0.0008814193284178221</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.04462555014212761</v>
+        <v>0.03583882793776789</v>
       </c>
       <c r="AC25">
-        <v>-0.04374413081370979</v>
+        <v>-0.03583882793776789</v>
       </c>
       <c r="AD25">
-        <v>2.56</v>
+        <v>31.7</v>
       </c>
       <c r="AE25">
-        <v>0.5369510081690007</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>3.096951008169001</v>
+        <v>31.7</v>
       </c>
       <c r="AG25">
-        <v>-23.803048991831</v>
+        <v>-23.3</v>
       </c>
       <c r="AH25">
-        <v>0.06689319578782953</v>
+        <v>0.337953091684435</v>
       </c>
       <c r="AI25">
-        <v>0.02185615841508444</v>
+        <v>0.1051758460517585</v>
       </c>
       <c r="AJ25">
-        <v>-1.227154153341232</v>
+        <v>-0.6005154639175259</v>
       </c>
       <c r="AK25">
-        <v>-0.2073491393524656</v>
+        <v>-0.09456168831168832</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>11.90697674418605</v>
-      </c>
-      <c r="AP25">
-        <v>-110.7118557759581</v>
       </c>
     </row>
     <row r="26">
@@ -3531,7 +3459,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Power Financial Group Limited (SEHK:397)</t>
+          <t>CMBC Capital Holdings Limited (SEHK:1141)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3539,9 +3467,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D26">
-        <v>0.0269</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -3549,103 +3474,97 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.03517131963659171</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.03517131963659171</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>-29.7</v>
+        <v>48</v>
       </c>
       <c r="L26">
-        <v>-3.34836527621195</v>
+        <v>0.4473438956197577</v>
       </c>
       <c r="M26">
-        <v>5.56</v>
+        <v>13.09</v>
       </c>
       <c r="N26">
-        <v>0.1787781350482315</v>
+        <v>0.01590329243105333</v>
       </c>
       <c r="O26">
-        <v>-0.1872053872053872</v>
+        <v>0.2727083333333333</v>
       </c>
       <c r="P26">
-        <v>-0</v>
+        <v>12.3</v>
       </c>
       <c r="Q26">
-        <v>-0</v>
+        <v>0.01494350625683392</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.25625</v>
       </c>
       <c r="S26">
-        <v>5.56</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0.0603514132925897</v>
       </c>
       <c r="U26">
-        <v>18.5</v>
+        <v>77.7</v>
       </c>
       <c r="V26">
-        <v>0.5948553054662379</v>
+        <v>0.09439922245170697</v>
       </c>
       <c r="W26">
-        <v>-0.1295246402093327</v>
+        <v>0.1760821716801174</v>
       </c>
       <c r="X26">
-        <v>0.04743047223325347</v>
+        <v>0.06111045074795507</v>
       </c>
       <c r="Y26">
-        <v>-0.1769551124425862</v>
+        <v>0.1149717209321623</v>
       </c>
       <c r="Z26">
-        <v>0.04927581989228626</v>
+        <v>0.08610865901613031</v>
       </c>
       <c r="AA26">
-        <v>0.001733095611786724</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.04571232479303637</v>
+        <v>0.03607573785752745</v>
       </c>
       <c r="AC26">
-        <v>-0.04397922918124965</v>
+        <v>-0.03607573785752745</v>
       </c>
       <c r="AD26">
-        <v>4.14</v>
+        <v>1322.3</v>
       </c>
       <c r="AE26">
-        <v>0.9401519741171576</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>5.080151974117157</v>
+        <v>1322.3</v>
       </c>
       <c r="AG26">
-        <v>-13.41984802588284</v>
+        <v>1244.6</v>
       </c>
       <c r="AH26">
-        <v>0.1404126764793978</v>
+        <v>0.6163419408968024</v>
       </c>
       <c r="AI26">
-        <v>0.02631110407867384</v>
+        <v>0.8292881781122609</v>
       </c>
       <c r="AJ26">
-        <v>-0.7590346534084558</v>
+        <v>0.6019248440295981</v>
       </c>
       <c r="AK26">
-        <v>-0.07686926534393462</v>
+        <v>0.8205432489451476</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AP26">
-        <v>-26.83969605176569</v>
       </c>
     </row>
     <row r="27">
@@ -3656,7 +3575,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cinda International Holdings Limited (SEHK:111)</t>
+          <t>Kingston Financial Group Limited (SEHK:1031)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3665,10 +3584,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.0362</v>
+        <v>-0.215</v>
       </c>
       <c r="E27">
-        <v>-0.06320000000000001</v>
+        <v>-0.344</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3677,100 +3596,100 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.0393737240802411</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.03264634774367999</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>7.78</v>
+        <v>25.1</v>
       </c>
       <c r="L27">
-        <v>0.2379204892966361</v>
+        <v>0.2306985294117647</v>
       </c>
       <c r="M27">
-        <v>-0</v>
+        <v>58.6</v>
       </c>
       <c r="N27">
-        <v>-0</v>
+        <v>0.03847921728281568</v>
       </c>
       <c r="O27">
-        <v>-0</v>
+        <v>2.334661354581673</v>
       </c>
       <c r="P27">
-        <v>-0</v>
+        <v>58.6</v>
       </c>
       <c r="Q27">
-        <v>-0</v>
+        <v>0.03847921728281568</v>
       </c>
       <c r="R27">
-        <v>-0</v>
+        <v>2.334661354581673</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
       <c r="U27">
-        <v>64.09999999999999</v>
+        <v>20.1</v>
       </c>
       <c r="V27">
-        <v>1.972307692307692</v>
+        <v>0.01319850285639241</v>
       </c>
       <c r="W27">
-        <v>0.07725918570009931</v>
+        <v>0.00892857142857143</v>
       </c>
       <c r="X27">
-        <v>0.1161085363038318</v>
+        <v>0.04404692744414028</v>
       </c>
       <c r="Y27">
-        <v>-0.03884935060373246</v>
+        <v>-0.03511835601556885</v>
       </c>
       <c r="Z27">
-        <v>0.1975682835121206</v>
+        <v>0.0408071412497187</v>
       </c>
       <c r="AA27">
-        <v>0.006449882886658648</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.05081480120980222</v>
+        <v>0.03672455151467518</v>
       </c>
       <c r="AC27">
-        <v>-0.04436491832314358</v>
+        <v>-0.03672455151467518</v>
       </c>
       <c r="AD27">
-        <v>104.9</v>
+        <v>1040.1</v>
       </c>
       <c r="AE27">
-        <v>8.01239611288058</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>112.9123961128806</v>
+        <v>1040.1</v>
       </c>
       <c r="AG27">
-        <v>48.81239611288059</v>
+        <v>1020</v>
       </c>
       <c r="AH27">
-        <v>0.7764977342456353</v>
+        <v>0.4058134998049161</v>
       </c>
       <c r="AI27">
-        <v>0.5047212317010246</v>
+        <v>0.2698404462316772</v>
       </c>
       <c r="AJ27">
-        <v>0.6003069451442261</v>
+        <v>0.4011168351095206</v>
       </c>
       <c r="AK27">
-        <v>0.3058183280348704</v>
+        <v>0.2660129355309827</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>36.29757785467128</v>
-      </c>
-      <c r="AP27">
-        <v>16.89010246120436</v>
+        <v>-1.8</v>
+      </c>
+      <c r="AQ27">
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
@@ -3781,7 +3700,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bright Smart Securities &amp; Commodities Group Limited (SEHK:1428)</t>
+          <t>Shenwan Hongyuan (H.K.) Limited (SEHK:218)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3790,46 +3709,46 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.13</v>
+        <v>-0.0132</v>
       </c>
       <c r="E28">
-        <v>0.169</v>
+        <v>-0.0594</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.01556091676718938</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.03929870384981126</v>
+        <v>0.001417363678240631</v>
       </c>
       <c r="J28">
-        <v>0.03481785501558447</v>
+        <v>0.001199410584322497</v>
       </c>
       <c r="K28">
-        <v>52.5</v>
+        <v>18</v>
       </c>
       <c r="L28">
-        <v>0.4738267148014441</v>
+        <v>0.2171290711700844</v>
       </c>
       <c r="M28">
-        <v>16.9</v>
+        <v>6.04</v>
       </c>
       <c r="N28">
-        <v>0.0553916748607014</v>
+        <v>0.02940603700097371</v>
       </c>
       <c r="O28">
-        <v>0.3219047619047619</v>
+        <v>0.3355555555555556</v>
       </c>
       <c r="P28">
-        <v>16.9</v>
+        <v>6.04</v>
       </c>
       <c r="Q28">
-        <v>0.0553916748607014</v>
+        <v>0.02940603700097371</v>
       </c>
       <c r="R28">
-        <v>0.3219047619047619</v>
+        <v>0.3355555555555556</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3838,55 +3757,55 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>51.1</v>
+        <v>119.1</v>
       </c>
       <c r="V28">
-        <v>0.1674860701409374</v>
+        <v>0.5798442064264848</v>
       </c>
       <c r="W28">
-        <v>0.1508620689655172</v>
+        <v>0.03640040444893832</v>
       </c>
       <c r="X28">
-        <v>0.07540692578578133</v>
+        <v>0.08296677577832264</v>
       </c>
       <c r="Y28">
-        <v>0.07545514317973591</v>
+        <v>-0.04656637132938431</v>
       </c>
       <c r="Z28">
-        <v>0.1348705462601313</v>
+        <v>0.1617426838834617</v>
       </c>
       <c r="AA28">
-        <v>0.004695903125557929</v>
+        <v>0.0001939958869865517</v>
       </c>
       <c r="AB28">
-        <v>0.04929211291800015</v>
+        <v>0.03697889463677911</v>
       </c>
       <c r="AC28">
-        <v>-0.04459620979244222</v>
+        <v>-0.03678489874979256</v>
       </c>
       <c r="AD28">
-        <v>438.4</v>
+        <v>572.8</v>
       </c>
       <c r="AE28">
-        <v>22.92851806720456</v>
+        <v>0.1425027553692581</v>
       </c>
       <c r="AF28">
-        <v>461.3285180672045</v>
+        <v>572.9425027553692</v>
       </c>
       <c r="AG28">
-        <v>410.2285180672045</v>
+        <v>453.8425027553692</v>
       </c>
       <c r="AH28">
-        <v>0.6019198231696707</v>
+        <v>0.7361058926206981</v>
       </c>
       <c r="AI28">
-        <v>0.5465145510348416</v>
+        <v>0.5303341313464044</v>
       </c>
       <c r="AJ28">
-        <v>0.5734826834188427</v>
+        <v>0.6884302830270949</v>
       </c>
       <c r="AK28">
-        <v>0.5172935256691993</v>
+        <v>0.4721415266745332</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -3895,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>49.03803131991052</v>
+        <v>3923.287671232877</v>
       </c>
       <c r="AP28">
-        <v>45.88685884420632</v>
+        <v>3108.510292844995</v>
       </c>
     </row>
     <row r="29">
@@ -3909,7 +3828,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>First Shanghai Investments Limited (SEHK:227)</t>
+          <t>Emperor Capital Group Limited (SEHK:717)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3918,10 +3837,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>-0.00153</v>
-      </c>
-      <c r="E29">
-        <v>0.017</v>
+        <v>-0.0944</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3930,16 +3846,16 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.0619600500318741</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.03143370739064743</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>3.64</v>
+        <v>-89</v>
       </c>
       <c r="L29">
-        <v>0.06476868327402135</v>
+        <v>-1.444805194805195</v>
       </c>
       <c r="M29">
         <v>-0</v>
@@ -3948,7 +3864,7 @@
         <v>-0</v>
       </c>
       <c r="O29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>-0</v>
@@ -3957,76 +3873,67 @@
         <v>-0</v>
       </c>
       <c r="R29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>35.4</v>
+        <v>89.3</v>
       </c>
       <c r="V29">
-        <v>0.4317073170731707</v>
+        <v>0.7959001782531194</v>
       </c>
       <c r="W29">
-        <v>0.01036151437517791</v>
+        <v>-0.1363984674329502</v>
       </c>
       <c r="X29">
-        <v>0.06915882773695128</v>
+        <v>0.1119382606895817</v>
       </c>
       <c r="Y29">
-        <v>-0.05879731336177337</v>
+        <v>-0.2483367281225319</v>
       </c>
       <c r="Z29">
-        <v>0.1314960616432398</v>
+        <v>0.07528721583964802</v>
       </c>
       <c r="AA29">
-        <v>0.004133408724716139</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.04881906277513227</v>
+        <v>0.03756134452248241</v>
       </c>
       <c r="AC29">
-        <v>-0.04468565405041613</v>
+        <v>-0.03756134452248241</v>
       </c>
       <c r="AD29">
-        <v>81.40000000000001</v>
+        <v>488.9</v>
       </c>
       <c r="AE29">
-        <v>17.88922594104337</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>99.28922594104338</v>
+        <v>488.9</v>
       </c>
       <c r="AG29">
-        <v>63.88922594104339</v>
+        <v>399.6</v>
       </c>
       <c r="AH29">
-        <v>0.5476840966452854</v>
+        <v>0.8133422059557477</v>
       </c>
       <c r="AI29">
-        <v>0.2196716652577787</v>
+        <v>0.4612699311255778</v>
       </c>
       <c r="AJ29">
-        <v>0.4379297067959099</v>
+        <v>0.7807737397420867</v>
       </c>
       <c r="AK29">
-        <v>0.1533626458934997</v>
+        <v>0.4117041005563569</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>-6.61</v>
-      </c>
-      <c r="AN29">
-        <v>11.52974504249292</v>
-      </c>
-      <c r="AP29">
-        <v>9.049465430742689</v>
-      </c>
-      <c r="AQ29">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4037,7 +3944,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Altus Holdings Limited (SEHK:8149)</t>
+          <t>Cinda International Holdings Limited (SEHK:111)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4045,6 +3952,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D30">
+        <v>0.0888</v>
+      </c>
+      <c r="E30">
+        <v>-0.073</v>
+      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -4052,103 +3965,94 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.002960916948241868</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.002300537512263725</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>2.52</v>
+        <v>6.45</v>
       </c>
       <c r="L30">
-        <v>0.3061968408262454</v>
+        <v>0.1697368421052632</v>
       </c>
       <c r="M30">
-        <v>0.44</v>
+        <v>-0</v>
       </c>
       <c r="N30">
-        <v>0.01452145214521452</v>
+        <v>-0</v>
       </c>
       <c r="O30">
-        <v>0.1746031746031746</v>
+        <v>-0</v>
       </c>
       <c r="P30">
-        <v>0.44</v>
+        <v>-0</v>
       </c>
       <c r="Q30">
-        <v>0.01452145214521452</v>
+        <v>-0</v>
       </c>
       <c r="R30">
-        <v>0.1746031746031746</v>
+        <v>-0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
       <c r="U30">
-        <v>4.72</v>
+        <v>74.7</v>
       </c>
       <c r="V30">
-        <v>0.1557755775577558</v>
+        <v>2.441176470588235</v>
       </c>
       <c r="W30">
-        <v>0.04640883977900553</v>
+        <v>0.05874316939890711</v>
       </c>
       <c r="X30">
-        <v>0.06022460664757134</v>
+        <v>0.1129427886261543</v>
       </c>
       <c r="Y30">
-        <v>-0.01381576686856582</v>
+        <v>-0.0541996192272472</v>
       </c>
       <c r="Z30">
-        <v>0.1121740029235094</v>
+        <v>0.252324037184595</v>
       </c>
       <c r="AA30">
-        <v>0.0002580605016263142</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.04566891721383728</v>
+        <v>0.03757548555854177</v>
       </c>
       <c r="AC30">
-        <v>-0.04541085671221096</v>
+        <v>-0.03757548555854177</v>
       </c>
       <c r="AD30">
-        <v>23.6</v>
+        <v>135</v>
       </c>
       <c r="AE30">
-        <v>0.03815826757984713</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>23.63815826757985</v>
+        <v>135</v>
       </c>
       <c r="AG30">
-        <v>18.91815826757985</v>
+        <v>60.3</v>
       </c>
       <c r="AH30">
-        <v>0.4382455580020765</v>
+        <v>0.8152173913043479</v>
       </c>
       <c r="AI30">
-        <v>0.280944564919103</v>
+        <v>0.5323343848580442</v>
       </c>
       <c r="AJ30">
-        <v>0.3843735510119909</v>
+        <v>0.6633663366336633</v>
       </c>
       <c r="AK30">
-        <v>0.2382094810589763</v>
+        <v>0.3370598099496926</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>737.5</v>
-      </c>
-      <c r="AP30">
-        <v>591.1924458618703</v>
       </c>
     </row>
     <row r="31">
@@ -4159,7 +4063,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Get Nice Financial Group Limited (SEHK:1469)</t>
+          <t>BOCOM International Holdings Company Limited (SEHK:3329)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4174,34 +4078,34 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0.0003020148833691548</v>
+        <v>9.239847830878411e-06</v>
       </c>
       <c r="J31">
-        <v>0.0002275525931591735</v>
+        <v>8.520773958869913e-06</v>
       </c>
       <c r="K31">
-        <v>17.5</v>
+        <v>68</v>
       </c>
       <c r="L31">
-        <v>0.4364089775561097</v>
+        <v>0.3903559127439725</v>
       </c>
       <c r="M31">
-        <v>22.3</v>
+        <v>28.2</v>
       </c>
       <c r="N31">
-        <v>0.08370870870870872</v>
+        <v>0.07762180016515276</v>
       </c>
       <c r="O31">
-        <v>1.274285714285714</v>
+        <v>0.4147058823529411</v>
       </c>
       <c r="P31">
-        <v>22.3</v>
+        <v>28.2</v>
       </c>
       <c r="Q31">
-        <v>0.08370870870870872</v>
+        <v>0.07762180016515276</v>
       </c>
       <c r="R31">
-        <v>1.274285714285714</v>
+        <v>0.4147058823529411</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4210,55 +4114,55 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>28.8</v>
+        <v>118.5</v>
       </c>
       <c r="V31">
-        <v>0.1081081081081081</v>
+        <v>0.3261767134599504</v>
       </c>
       <c r="W31">
-        <v>0.03449635324265721</v>
+        <v>0.08303822200512884</v>
       </c>
       <c r="X31">
-        <v>0.04851265820060493</v>
+        <v>0.1180289913549184</v>
       </c>
       <c r="Y31">
-        <v>-0.01401630495794772</v>
+        <v>-0.03499076934978958</v>
       </c>
       <c r="Z31">
-        <v>0.0815845807280791</v>
+        <v>0.09093272563079015</v>
       </c>
       <c r="AA31">
-        <v>1.856478290647833e-05</v>
+        <v>7.748172005638995e-07</v>
       </c>
       <c r="AB31">
-        <v>0.04558858854930346</v>
+        <v>0.03764293531685931</v>
       </c>
       <c r="AC31">
-        <v>-0.04557002376639698</v>
+        <v>-0.03764216049965875</v>
       </c>
       <c r="AD31">
-        <v>57.4</v>
+        <v>1702.8</v>
       </c>
       <c r="AE31">
-        <v>0.01444601588448446</v>
+        <v>0.001952092539304906</v>
       </c>
       <c r="AF31">
-        <v>57.41444601588449</v>
+        <v>1702.801952092539</v>
       </c>
       <c r="AG31">
-        <v>28.61444601588449</v>
+        <v>1584.301952092539</v>
       </c>
       <c r="AH31">
-        <v>0.177306623352647</v>
+        <v>0.8241616297627272</v>
       </c>
       <c r="AI31">
-        <v>0.102872173307355</v>
+        <v>0.6568180018989462</v>
       </c>
       <c r="AJ31">
-        <v>0.09699337236639523</v>
+        <v>0.8134629103191934</v>
       </c>
       <c r="AK31">
-        <v>0.05405944657521359</v>
+        <v>0.6403802352510346</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -4267,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>3826.666666666667</v>
+        <v>851400</v>
       </c>
       <c r="AP31">
-        <v>1907.629734392299</v>
+        <v>792150.9760462696</v>
       </c>
     </row>
     <row r="32">
@@ -4281,7 +4185,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kingston Financial Group Limited (SEHK:1031)</t>
+          <t>Rivera (Holdings) Limited (SEHK:281)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4290,46 +4194,46 @@
         </is>
       </c>
       <c r="D32">
-        <v>-0.0351</v>
+        <v>-0.424</v>
       </c>
       <c r="E32">
-        <v>-0.0254</v>
+        <v>-0.262</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>-6.681818181818182</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-6.681818181818182</v>
       </c>
       <c r="I32">
-        <v>0.01040953568939568</v>
+        <v>-6.727272727272728</v>
       </c>
       <c r="J32">
-        <v>0.008898979006648785</v>
+        <v>-6.000592390066075</v>
       </c>
       <c r="K32">
-        <v>113.2</v>
+        <v>3.63</v>
       </c>
       <c r="L32">
-        <v>0.5166590597900502</v>
+        <v>16.5</v>
       </c>
       <c r="M32">
-        <v>0.002</v>
+        <v>13.5</v>
       </c>
       <c r="N32">
-        <v>1.12139052425007e-06</v>
+        <v>0.06801007556675064</v>
       </c>
       <c r="O32">
-        <v>1.76678445229682e-05</v>
+        <v>3.71900826446281</v>
       </c>
       <c r="P32">
-        <v>0.002</v>
+        <v>13.5</v>
       </c>
       <c r="Q32">
-        <v>1.12139052425007e-06</v>
+        <v>0.06801007556675064</v>
       </c>
       <c r="R32">
-        <v>1.76678445229682e-05</v>
+        <v>3.71900826446281</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4338,70 +4242,70 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>33.3</v>
+        <v>120.2</v>
       </c>
       <c r="V32">
-        <v>0.01867115222876366</v>
+        <v>0.6055415617128463</v>
       </c>
       <c r="W32">
-        <v>0.04238906571803033</v>
+        <v>0.01071744906997343</v>
       </c>
       <c r="X32">
-        <v>0.05919671380386868</v>
+        <v>0.03142781672395131</v>
       </c>
       <c r="Y32">
-        <v>-0.01680764808583834</v>
+        <v>-0.02071036765397789</v>
       </c>
       <c r="Z32">
-        <v>0.07251373966914124</v>
+        <v>0.001081081081081081</v>
       </c>
       <c r="AA32">
-        <v>0.000645298247009283</v>
+        <v>-0.00648712690817954</v>
       </c>
       <c r="AB32">
-        <v>0.04772423037829672</v>
+        <v>0.03142781672395131</v>
       </c>
       <c r="AC32">
-        <v>-0.04707893213128744</v>
+        <v>-0.03791494363213085</v>
       </c>
       <c r="AD32">
-        <v>1290.8</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>12.19635365226704</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>1302.996353652267</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>1269.696353652267</v>
+        <v>-120.2</v>
       </c>
       <c r="AH32">
-        <v>0.4221603411617268</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>0.3164766121723609</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0.4158580735017066</v>
+        <v>-1.535121328224777</v>
       </c>
       <c r="AK32">
-        <v>0.3109031776765749</v>
+        <v>-0.6303093864708967</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>-3.27</v>
+        <v>-6.43</v>
       </c>
       <c r="AN32">
-        <v>273.4745762711864</v>
+        <v>-0</v>
       </c>
       <c r="AP32">
-        <v>269.0034647568363</v>
+        <v>87.10144927536233</v>
       </c>
       <c r="AQ32">
-        <v>-0</v>
+        <v>0.2301710730948678</v>
       </c>
     </row>
     <row r="33">
@@ -4412,7 +4316,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GT Group Holdings Limited (SEHK:263)</t>
+          <t>CASH Financial Services Group Limited (SEHK:510)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4420,23 +4324,26 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D33">
+        <v>-0.256</v>
+      </c>
       <c r="G33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>-0.07228451446221232</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>-0.07228451446221232</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>-61.7</v>
+        <v>-14.9</v>
       </c>
       <c r="L33">
-        <v>5.508928571428572</v>
+        <v>-1.28448275862069</v>
       </c>
       <c r="M33">
         <v>-0</v>
@@ -4460,67 +4367,61 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>2.54</v>
+        <v>32</v>
       </c>
       <c r="V33">
-        <v>0.7055555555555556</v>
+        <v>1.467889908256881</v>
       </c>
       <c r="W33">
-        <v>-0.8981077147016012</v>
+        <v>-0.198931909212283</v>
       </c>
       <c r="X33">
-        <v>0.9386025102626473</v>
+        <v>0.05236245690849874</v>
       </c>
       <c r="Y33">
-        <v>-1.836710224964249</v>
+        <v>-0.2512943661207818</v>
       </c>
       <c r="Z33">
-        <v>-0.06839608312850672</v>
+        <v>0.1608876560332871</v>
       </c>
       <c r="AA33">
-        <v>0.00494397766006122</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.05256654754421693</v>
+        <v>0.03836088917118383</v>
       </c>
       <c r="AC33">
-        <v>-0.04762256988415571</v>
+        <v>-0.03836088917118383</v>
       </c>
       <c r="AD33">
-        <v>152</v>
+        <v>24.7</v>
       </c>
       <c r="AE33">
-        <v>3.25206719011611</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>155.2520671901161</v>
+        <v>24.7</v>
       </c>
       <c r="AG33">
-        <v>152.7120671901161</v>
+        <v>-7.300000000000001</v>
       </c>
       <c r="AH33">
-        <v>0.9773374054006394</v>
+        <v>0.5311827956989247</v>
       </c>
       <c r="AI33">
-        <v>0.9533318788571002</v>
+        <v>0.2868757259001162</v>
       </c>
       <c r="AJ33">
-        <v>0.9769691485455089</v>
+        <v>-0.503448275862069</v>
       </c>
       <c r="AK33">
-        <v>0.9525924646022619</v>
+        <v>-0.1349353049907579</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>104.1095890410959</v>
-      </c>
-      <c r="AP33">
-        <v>104.5973062946001</v>
       </c>
     </row>
     <row r="34">
@@ -4531,7 +4432,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BOCOM International Holdings Company Limited (SEHK:3329)</t>
+          <t>Everbright Securities Company Limited (SHSE:601788)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4539,41 +4440,50 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D34">
+        <v>-0.0508</v>
+      </c>
+      <c r="E34">
+        <v>-0.258</v>
+      </c>
+      <c r="F34">
+        <v>2.87</v>
+      </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.02229806598407281</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.03621224246852336</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.03239082045843041</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>237.2</v>
       </c>
       <c r="L34">
-        <v>0.3616042077580539</v>
+        <v>0.1349260523321957</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>493.4</v>
       </c>
       <c r="N34">
-        <v>0.07185014113420581</v>
+        <v>0.04212593383137674</v>
       </c>
       <c r="O34">
-        <v>0.509090909090909</v>
+        <v>2.080101180438449</v>
       </c>
       <c r="P34">
-        <v>28</v>
+        <v>493.4</v>
       </c>
       <c r="Q34">
-        <v>0.07185014113420581</v>
+        <v>0.04212593383137674</v>
       </c>
       <c r="R34">
-        <v>0.509090909090909</v>
+        <v>2.080101180438449</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4582,67 +4492,61 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>112.7</v>
+        <v>1873.2</v>
       </c>
       <c r="V34">
-        <v>0.2891968180651784</v>
+        <v>0.159931696905016</v>
       </c>
       <c r="W34">
-        <v>0.06996565322478056</v>
+        <v>0.03444670345628812</v>
       </c>
       <c r="X34">
-        <v>0.1093593786547426</v>
+        <v>0.05534447071209032</v>
       </c>
       <c r="Y34">
-        <v>-0.03939372542996206</v>
+        <v>-0.0208977672558022</v>
       </c>
       <c r="Z34">
-        <v>0.07653944720091797</v>
+        <v>0.1034884679232843</v>
       </c>
       <c r="AA34">
-        <v>0.002479175492272448</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0.05066192155405273</v>
+        <v>0.03879131356293684</v>
       </c>
       <c r="AC34">
-        <v>-0.04818274606178029</v>
+        <v>-0.03879131356293684</v>
       </c>
       <c r="AD34">
-        <v>1209.5</v>
+        <v>15160.9</v>
       </c>
       <c r="AE34">
-        <v>17.61058960268798</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>1227.110589602688</v>
+        <v>15160.9</v>
       </c>
       <c r="AG34">
-        <v>1114.410589602688</v>
+        <v>13287.7</v>
       </c>
       <c r="AH34">
-        <v>0.7589699111905469</v>
+        <v>0.564160098833791</v>
       </c>
       <c r="AI34">
-        <v>0.5984998545222746</v>
+        <v>0.655620662068369</v>
       </c>
       <c r="AJ34">
-        <v>0.7409100084170409</v>
+        <v>0.5315037479700162</v>
       </c>
       <c r="AK34">
-        <v>0.5751468306287492</v>
+        <v>0.6252652778888821</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>133.9424141749723</v>
-      </c>
-      <c r="AP34">
-        <v>123.4120254266543</v>
       </c>
     </row>
     <row r="35">
@@ -4653,7 +4557,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CMBC Capital Holdings Limited (SEHK:1141)</t>
+          <t>China Fortune Financial Group Limited (SEHK:290)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4661,6 +4565,9 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D35">
+        <v>0.393</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -4668,25 +4575,25 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.000522230908017973</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.0004390694159839305</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>37.8</v>
+        <v>-6.13</v>
       </c>
       <c r="L35">
-        <v>0.5128900949796472</v>
+        <v>-0.4198630136986302</v>
       </c>
       <c r="M35">
-        <v>0.063</v>
+        <v>-0</v>
       </c>
       <c r="N35">
-        <v>7.197532274648693e-05</v>
+        <v>-0</v>
       </c>
       <c r="O35">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>-0</v>
@@ -4695,76 +4602,67 @@
         <v>-0</v>
       </c>
       <c r="R35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>0.063</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>46.2</v>
+        <v>22.4</v>
       </c>
       <c r="V35">
-        <v>0.05278190334742375</v>
+        <v>0.3796610169491525</v>
       </c>
       <c r="W35">
-        <v>0.2705798138869005</v>
+        <v>-0.1301486199575372</v>
       </c>
       <c r="X35">
-        <v>0.06868973370541384</v>
+        <v>0.04664762910487789</v>
       </c>
       <c r="Y35">
-        <v>0.2018900801814867</v>
+        <v>-0.176796249062415</v>
       </c>
       <c r="Z35">
-        <v>0.07123749380742056</v>
+        <v>0.1631448972522377</v>
       </c>
       <c r="AA35">
-        <v>3.127820480218301e-05</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>0.04877829136181416</v>
+        <v>0.03889958814814226</v>
       </c>
       <c r="AC35">
-        <v>-0.04874701315701197</v>
+        <v>-0.03889958814814226</v>
       </c>
       <c r="AD35">
-        <v>1021.8</v>
+        <v>48.6</v>
       </c>
       <c r="AE35">
-        <v>18.25755791039538</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>1040.057557910395</v>
+        <v>48.6</v>
       </c>
       <c r="AG35">
-        <v>993.8575579103954</v>
+        <v>26.2</v>
       </c>
       <c r="AH35">
-        <v>0.5430096086315449</v>
+        <v>0.4516728624535316</v>
       </c>
       <c r="AI35">
-        <v>0.7923296915046534</v>
+        <v>0.5323110624315444</v>
       </c>
       <c r="AJ35">
-        <v>0.5317141691476602</v>
+        <v>0.3075117370892019</v>
       </c>
       <c r="AK35">
-        <v>0.7847539396031723</v>
+        <v>0.3802612481857765</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>276.910569105691</v>
-      </c>
-      <c r="AP35">
-        <v>269.3380915746329</v>
       </c>
     </row>
     <row r="36">
@@ -4775,7 +4673,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rivera (Holdings) Limited (SEHK:281)</t>
+          <t>Southwest Securities International Securities Limited (SEHK:812)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4783,119 +4681,101 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D36">
-        <v>0.214</v>
-      </c>
-      <c r="E36">
-        <v>-0.218</v>
-      </c>
       <c r="G36">
-        <v>6.249999999999999</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>6.249999999999999</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>-3.211206896551724</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>-2.832244591989719</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>14.2</v>
+        <v>-53.1</v>
       </c>
       <c r="L36">
-        <v>30.60344827586207</v>
+        <v>-3.516556291390728</v>
       </c>
       <c r="M36">
-        <v>13.4</v>
+        <v>-0</v>
       </c>
       <c r="N36">
-        <v>0.08165752589884218</v>
+        <v>-0</v>
       </c>
       <c r="O36">
-        <v>0.943661971830986</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>13.4</v>
+        <v>-0</v>
       </c>
       <c r="Q36">
-        <v>0.08165752589884218</v>
+        <v>-0</v>
       </c>
       <c r="R36">
-        <v>0.943661971830986</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
       <c r="U36">
-        <v>135.2</v>
+        <v>67.7</v>
       </c>
       <c r="V36">
-        <v>0.8238878732480195</v>
+        <v>0.9883211678832117</v>
       </c>
       <c r="W36">
-        <v>0.039043167445697</v>
+        <v>-3.277777777777778</v>
       </c>
       <c r="X36">
-        <v>0.04404210012030307</v>
+        <v>0.08661523770112747</v>
       </c>
       <c r="Y36">
-        <v>-0.00499893267460607</v>
+        <v>-3.364393015478905</v>
       </c>
       <c r="Z36">
-        <v>0.002120658135283364</v>
+        <v>0.08961424332344213</v>
       </c>
       <c r="AA36">
-        <v>-0.00600622253511531</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0.04404210012030307</v>
+        <v>0.04120616873211748</v>
       </c>
       <c r="AC36">
-        <v>-0.05004832265541839</v>
+        <v>-0.04120616873211748</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>204.6</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>204.6</v>
       </c>
       <c r="AG36">
-        <v>-135.2</v>
+        <v>136.9</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>0.7491761259611863</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>0.843363561417972</v>
       </c>
       <c r="AJ36">
-        <v>-4.678200692041521</v>
+        <v>0.6665043816942551</v>
       </c>
       <c r="AK36">
-        <v>-0.6608015640273703</v>
+        <v>0.7827329902801601</v>
       </c>
       <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>-8.75</v>
-      </c>
-      <c r="AN36">
-        <v>-0</v>
-      </c>
-      <c r="AP36">
-        <v>97.97101449275362</v>
-      </c>
-      <c r="AQ36">
-        <v>0.1702857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4906,7 +4786,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Emperor Capital Group Limited (SEHK:717)</t>
+          <t>Guotai Junan International Holdings Limited (SEHK:1788)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4915,7 +4795,13 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.00307</v>
+        <v>0.121</v>
+      </c>
+      <c r="E37">
+        <v>-0.0297</v>
+      </c>
+      <c r="F37">
+        <v>-0.0287</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4930,82 +4816,85 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>-33</v>
+        <v>111.4</v>
       </c>
       <c r="L37">
-        <v>-0.4888888888888889</v>
+        <v>0.2565047202394658</v>
       </c>
       <c r="M37">
-        <v>-0</v>
+        <v>74.47</v>
       </c>
       <c r="N37">
-        <v>-0</v>
+        <v>0.05794879775892927</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.6684919210053859</v>
       </c>
       <c r="P37">
-        <v>-0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="Q37">
-        <v>-0</v>
+        <v>0.05205820558711385</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>0.6005385996409336</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>7.569999999999993</v>
+      </c>
+      <c r="T37">
+        <v>0.1016516718141533</v>
       </c>
       <c r="U37">
-        <v>222.6</v>
+        <v>900.6</v>
       </c>
       <c r="V37">
-        <v>1.360635696821516</v>
+        <v>0.700801494047156</v>
       </c>
       <c r="W37">
-        <v>-0.04753673292999135</v>
+        <v>0.07654779083350513</v>
       </c>
       <c r="X37">
-        <v>0.09327539194827329</v>
+        <v>0.1785227495917437</v>
       </c>
       <c r="Y37">
-        <v>-0.1408121248782646</v>
+        <v>-0.1019749587582385</v>
       </c>
       <c r="Z37">
-        <v>0.06776428069470936</v>
+        <v>0.05296470645625503</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0.05017871278833973</v>
+        <v>0.04191069356239717</v>
       </c>
       <c r="AC37">
-        <v>-0.05017871278833973</v>
+        <v>-0.04191069356239717</v>
       </c>
       <c r="AD37">
-        <v>388.3</v>
+        <v>10230.8</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>388.3</v>
+        <v>10230.8</v>
       </c>
       <c r="AG37">
-        <v>165.7</v>
+        <v>9330.199999999999</v>
       </c>
       <c r="AH37">
-        <v>0.7035694872259468</v>
+        <v>0.8884064641061489</v>
       </c>
       <c r="AI37">
-        <v>0.3730784012298232</v>
+        <v>0.8445016756640747</v>
       </c>
       <c r="AJ37">
-        <v>0.5031885818402673</v>
+        <v>0.8789388900926022</v>
       </c>
       <c r="AK37">
-        <v>0.2025177218284038</v>
+        <v>0.8320135544854647</v>
       </c>
       <c r="AL37">
         <v>0</v>
@@ -5022,7 +4911,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Guotai Junan International Holdings Limited (SEHK:1788)</t>
+          <t>Bright Smart Securities &amp; Commodities Group Limited (SEHK:1428)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5031,13 +4920,10 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.14</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="E38">
-        <v>0.035</v>
-      </c>
-      <c r="F38">
-        <v>0.0114</v>
+        <v>0.123</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5046,103 +4932,97 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0.003712528046610985</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0.003273997587693619</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>120.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="L38">
-        <v>0.3199893955461294</v>
+        <v>0.5367697594501718</v>
       </c>
       <c r="M38">
-        <v>99.8</v>
+        <v>61.3</v>
       </c>
       <c r="N38">
-        <v>0.07363683317346713</v>
+        <v>0.1296257136815394</v>
       </c>
       <c r="O38">
-        <v>0.8268434134217066</v>
+        <v>0.7848911651728553</v>
       </c>
       <c r="P38">
-        <v>54.3</v>
+        <v>61.3</v>
       </c>
       <c r="Q38">
-        <v>0.04006493027374013</v>
+        <v>0.1296257136815394</v>
       </c>
       <c r="R38">
-        <v>0.4498757249378624</v>
+        <v>0.7848911651728553</v>
       </c>
       <c r="S38">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0.4559118236472946</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>598.6</v>
+        <v>52.6</v>
       </c>
       <c r="V38">
-        <v>0.441673430236848</v>
+        <v>0.1112285895538169</v>
       </c>
       <c r="W38">
-        <v>0.08508388552093614</v>
+        <v>0.2040229885057471</v>
       </c>
       <c r="X38">
-        <v>0.1565261960067077</v>
+        <v>0.1577798728256524</v>
       </c>
       <c r="Y38">
-        <v>-0.07144231048577156</v>
+        <v>0.04624311568009468</v>
       </c>
       <c r="Z38">
-        <v>0.05840909688377788</v>
+        <v>0.1889365017530191</v>
       </c>
       <c r="AA38">
-        <v>0.0001912312422968517</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>0.05063070997194574</v>
+        <v>0.04281481277432632</v>
       </c>
       <c r="AC38">
-        <v>-0.05043947872964889</v>
+        <v>-0.04281481277432632</v>
       </c>
       <c r="AD38">
-        <v>7343.1</v>
+        <v>3233.9</v>
       </c>
       <c r="AE38">
-        <v>6.298172104091684</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>7349.398172104092</v>
+        <v>3233.9</v>
       </c>
       <c r="AG38">
-        <v>6750.798172104091</v>
+        <v>3181.3</v>
       </c>
       <c r="AH38">
-        <v>0.8443024705505213</v>
+        <v>0.872423653825402</v>
       </c>
       <c r="AI38">
-        <v>0.8345710632978042</v>
+        <v>0.9339243942588153</v>
       </c>
       <c r="AJ38">
-        <v>0.8328048869844606</v>
+        <v>0.8705872694433802</v>
       </c>
       <c r="AK38">
-        <v>0.8225059305472143</v>
+        <v>0.932905193396088</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38">
         <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>2760.563909774436</v>
-      </c>
-      <c r="AP38">
-        <v>2537.894049663192</v>
       </c>
     </row>
     <row r="39">
@@ -5153,7 +5033,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>South China Financial Holdings Limited (SEHK:619)</t>
+          <t>China Gem Holdings Limited (SEHK:1191)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5161,35 +5041,32 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D39">
-        <v>0.127</v>
-      </c>
       <c r="G39">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I39">
-        <v>0.0227684905142593</v>
+        <v>-0.00124006187175596</v>
       </c>
       <c r="J39">
-        <v>0.0227684905142593</v>
+        <v>-0.00124006187175596</v>
       </c>
       <c r="K39">
-        <v>-13.2</v>
+        <v>-51.3</v>
       </c>
       <c r="L39">
-        <v>-0.5641025641025641</v>
+        <v>1.517751479289941</v>
       </c>
       <c r="M39">
-        <v>-0</v>
+        <v>0.537</v>
       </c>
       <c r="N39">
-        <v>-0</v>
+        <v>0.08161094224924012</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>-0.01046783625730994</v>
       </c>
       <c r="P39">
         <v>-0</v>
@@ -5201,58 +5078,61 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.537</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>11.2</v>
+        <v>0.198</v>
       </c>
       <c r="V39">
-        <v>0.7619047619047619</v>
+        <v>0.03009118541033435</v>
       </c>
       <c r="W39">
-        <v>-0.09858103061986556</v>
+        <v>-0.8396072013093289</v>
       </c>
       <c r="X39">
-        <v>0.154130512899486</v>
+        <v>0.2719353548805681</v>
       </c>
       <c r="Y39">
-        <v>-0.2527115435193515</v>
+        <v>-1.111542556189897</v>
       </c>
       <c r="Z39">
-        <v>0.121548284156764</v>
+        <v>-0.2339967841834443</v>
       </c>
       <c r="AA39">
-        <v>0.002767470954847774</v>
+        <v>0.0002901704901793973</v>
       </c>
       <c r="AB39">
-        <v>0.05405126045850871</v>
+        <v>0.04354877767396401</v>
       </c>
       <c r="AC39">
-        <v>-0.05128378950366094</v>
+        <v>-0.04325860718378461</v>
       </c>
       <c r="AD39">
-        <v>76.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="AE39">
-        <v>1.516086609831662</v>
+        <v>0.05042954367324277</v>
       </c>
       <c r="AF39">
-        <v>78.01608660983166</v>
+        <v>85.65042954367324</v>
       </c>
       <c r="AG39">
-        <v>66.81608660983166</v>
+        <v>85.45242954367325</v>
       </c>
       <c r="AH39">
-        <v>0.8414514617958303</v>
+        <v>0.9286569515879332</v>
       </c>
       <c r="AI39">
-        <v>0.3929962953741193</v>
+        <v>0.888947044131755</v>
       </c>
       <c r="AJ39">
-        <v>0.819667496179496</v>
+        <v>0.9285034630442141</v>
       </c>
       <c r="AK39">
-        <v>0.3567023410488263</v>
+        <v>0.8887183605158935</v>
       </c>
       <c r="AL39">
         <v>0</v>
@@ -5261,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>91.50717703349282</v>
+        <v>1646.153846153846</v>
       </c>
       <c r="AP39">
-        <v>79.92354857635367</v>
+        <v>1643.315952762947</v>
       </c>
     </row>
     <row r="40">
@@ -5284,13 +5164,10 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.185</v>
+        <v>-0.0278</v>
       </c>
       <c r="E40">
-        <v>0.127</v>
-      </c>
-      <c r="F40">
-        <v>0.0322</v>
+        <v>-0.18</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5299,103 +5176,97 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0.01185230465783416</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0.01019602955193223</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>154</v>
+        <v>133.3</v>
       </c>
       <c r="L40">
-        <v>0.2859795728876509</v>
+        <v>0.2344766930518909</v>
       </c>
       <c r="M40">
-        <v>35.72</v>
+        <v>68.5</v>
       </c>
       <c r="N40">
-        <v>0.01976210235131397</v>
+        <v>0.04705316664376975</v>
       </c>
       <c r="O40">
-        <v>0.2319480519480519</v>
+        <v>0.5138784696174044</v>
       </c>
       <c r="P40">
-        <v>26.1</v>
+        <v>34.2</v>
       </c>
       <c r="Q40">
-        <v>0.01443983402489627</v>
+        <v>0.02349223794477264</v>
       </c>
       <c r="R40">
-        <v>0.1694805194805195</v>
+        <v>0.2565641410352588</v>
       </c>
       <c r="S40">
-        <v>9.619999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="T40">
-        <v>0.2693169092945128</v>
+        <v>0.5007299270072992</v>
       </c>
       <c r="U40">
-        <v>1103.3</v>
+        <v>435.3</v>
       </c>
       <c r="V40">
-        <v>0.6104011065006916</v>
+        <v>0.2990108531391675</v>
       </c>
       <c r="W40">
-        <v>0.04674599320058281</v>
+        <v>0.03893789799614419</v>
       </c>
       <c r="X40">
-        <v>0.1747106287183634</v>
+        <v>0.1593853064776166</v>
       </c>
       <c r="Y40">
-        <v>-0.1279646355177806</v>
+        <v>-0.1204474084814724</v>
       </c>
       <c r="Z40">
-        <v>0.03987504288661659</v>
+        <v>0.0417021214166251</v>
       </c>
       <c r="AA40">
-        <v>0.0004065671156565081</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>0.05200166179571711</v>
+        <v>0.04326654537175387</v>
       </c>
       <c r="AC40">
-        <v>-0.05159509468006061</v>
+        <v>-0.04326654537175387</v>
       </c>
       <c r="AD40">
-        <v>11361</v>
+        <v>10081.9</v>
       </c>
       <c r="AE40">
-        <v>25.08766970878153</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>11386.08766970878</v>
+        <v>10081.9</v>
       </c>
       <c r="AG40">
-        <v>10282.78766970878</v>
+        <v>9646.6</v>
       </c>
       <c r="AH40">
-        <v>0.8630016303942977</v>
+        <v>0.8738223389410368</v>
       </c>
       <c r="AI40">
-        <v>0.7688373780139472</v>
+        <v>0.7421019314568367</v>
       </c>
       <c r="AJ40">
-        <v>0.8504998351256321</v>
+        <v>0.8688751981553539</v>
       </c>
       <c r="AK40">
-        <v>0.7502295983028272</v>
+        <v>0.7335650137259226</v>
       </c>
       <c r="AL40">
         <v>0</v>
       </c>
       <c r="AM40">
         <v>0</v>
-      </c>
-      <c r="AN40">
-        <v>996.578947368421</v>
-      </c>
-      <c r="AP40">
-        <v>901.9989183955073</v>
       </c>
     </row>
     <row r="41">
@@ -5415,109 +5286,100 @@
         </is>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I41">
-        <v>0.03660717049101587</v>
+        <v>-0</v>
       </c>
       <c r="J41">
-        <v>0.03255132842709062</v>
+        <v>-0</v>
       </c>
       <c r="K41">
-        <v>28</v>
+        <v>-113.4</v>
       </c>
       <c r="L41">
-        <v>0.324449594438007</v>
+        <v>1.524193548387097</v>
       </c>
       <c r="M41">
-        <v>11.8</v>
+        <v>-0</v>
       </c>
       <c r="N41">
-        <v>0.06472846955567746</v>
+        <v>-0</v>
       </c>
       <c r="O41">
-        <v>0.4214285714285714</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>11.8</v>
+        <v>-0</v>
       </c>
       <c r="Q41">
-        <v>0.06472846955567746</v>
+        <v>-0</v>
       </c>
       <c r="R41">
-        <v>0.4214285714285714</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
       <c r="U41">
-        <v>983.7</v>
+        <v>624.6</v>
       </c>
       <c r="V41">
-        <v>5.396050466264399</v>
+        <v>4.40169133192389</v>
       </c>
       <c r="W41">
-        <v>0.05104831358249772</v>
+        <v>-0.1998237885462555</v>
       </c>
       <c r="X41">
-        <v>0.2867249366245953</v>
+        <v>0.2899587637853569</v>
       </c>
       <c r="Y41">
-        <v>-0.2356766230420975</v>
+        <v>-0.4897825523316124</v>
       </c>
       <c r="Z41">
-        <v>0.04285422004611198</v>
+        <v>-0.04348334307422561</v>
       </c>
       <c r="AA41">
-        <v>0.001394961791207801</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>0.05500054729449416</v>
+        <v>0.04360936454657866</v>
       </c>
       <c r="AC41">
-        <v>-0.05360558550328636</v>
+        <v>-0.04360936454657866</v>
       </c>
       <c r="AD41">
-        <v>2127.2</v>
+        <v>1985.5</v>
       </c>
       <c r="AE41">
-        <v>5.604005933126655</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>2132.804005933127</v>
+        <v>1985.5</v>
       </c>
       <c r="AG41">
-        <v>1149.104005933126</v>
+        <v>1360.9</v>
       </c>
       <c r="AH41">
-        <v>0.9212562375025902</v>
+        <v>0.9332988624612202</v>
       </c>
       <c r="AI41">
-        <v>0.7898384779072708</v>
+        <v>0.8123977086743044</v>
       </c>
       <c r="AJ41">
-        <v>0.8630768728442924</v>
+        <v>0.9055762576523821</v>
       </c>
       <c r="AK41">
-        <v>0.6694054085633375</v>
+        <v>0.7479938441244366</v>
       </c>
       <c r="AL41">
         <v>0</v>
       </c>
       <c r="AM41">
         <v>0</v>
-      </c>
-      <c r="AN41">
-        <v>497.0093457943925</v>
-      </c>
-      <c r="AP41">
-        <v>268.4822443768987</v>
       </c>
     </row>
     <row r="42">
@@ -5528,7 +5390,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Huarong International Financial Holdings Limited (SEHK:993)</t>
+          <t>GT Group Holdings Limited (SEHK:263)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5537,109 +5399,100 @@
         </is>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I42">
-        <v>0.07252753280665247</v>
+        <v>-0</v>
       </c>
       <c r="J42">
-        <v>0.07252753280665247</v>
+        <v>-0</v>
       </c>
       <c r="K42">
-        <v>-75.5</v>
+        <v>-92.59999999999999</v>
       </c>
       <c r="L42">
-        <v>-1.553497942386831</v>
+        <v>2.153488372093023</v>
       </c>
       <c r="M42">
-        <v>8.58</v>
+        <v>-0</v>
       </c>
       <c r="N42">
-        <v>0.08657921291624622</v>
+        <v>-0</v>
       </c>
       <c r="O42">
-        <v>-0.1136423841059603</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>8.58</v>
+        <v>-0</v>
       </c>
       <c r="Q42">
-        <v>0.08657921291624622</v>
+        <v>-0</v>
       </c>
       <c r="R42">
-        <v>-0.1136423841059603</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
       <c r="U42">
-        <v>438.2</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>4.421796165489405</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="W42">
-        <v>-0.232522328303049</v>
+        <v>-12.18421052631579</v>
       </c>
       <c r="X42">
-        <v>0.7046782212814865</v>
+        <v>1.29700185836311</v>
       </c>
       <c r="Y42">
-        <v>-0.9372005495845355</v>
+        <v>-13.4812123846789</v>
       </c>
       <c r="Z42">
-        <v>0.009824978302442625</v>
+        <v>-0.2737807207436648</v>
       </c>
       <c r="AA42">
-        <v>0.0007125814361550563</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>0.05557509164989964</v>
+        <v>0.04429214462196931</v>
       </c>
       <c r="AC42">
-        <v>-0.05486251021374459</v>
+        <v>-0.04429214462196931</v>
       </c>
       <c r="AD42">
-        <v>3149.4</v>
+        <v>154.8</v>
       </c>
       <c r="AE42">
-        <v>6.775809527983447</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>3156.175809527983</v>
+        <v>154.8</v>
       </c>
       <c r="AG42">
-        <v>2717.975809527984</v>
+        <v>152.8</v>
       </c>
       <c r="AH42">
-        <v>0.9695571110411165</v>
+        <v>0.9856105946771935</v>
       </c>
       <c r="AI42">
-        <v>0.9242702846616025</v>
+        <v>2.208273894436519</v>
       </c>
       <c r="AJ42">
-        <v>0.9648216779737268</v>
+        <v>0.9854249967754418</v>
       </c>
       <c r="AK42">
-        <v>0.9131216483140714</v>
+        <v>2.243759177679882</v>
       </c>
       <c r="AL42">
         <v>0</v>
       </c>
       <c r="AM42">
         <v>0</v>
-      </c>
-      <c r="AN42">
-        <v>645.3688524590165</v>
-      </c>
-      <c r="AP42">
-        <v>556.9622560508163</v>
       </c>
     </row>
     <row r="43">
@@ -5650,7 +5503,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Oriental Explorer Holdings Limited (SEHK:430)</t>
+          <t>South China Financial Holdings Limited (SEHK:619)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5658,23 +5511,26 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D43">
+        <v>-0.126</v>
+      </c>
       <c r="G43">
-        <v>10.76190476190476</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>10.76190476190476</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2.132685061633148</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>2.132685061633148</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>-2.75</v>
+        <v>-35.1</v>
       </c>
       <c r="L43">
-        <v>2.619047619047619</v>
+        <v>-3.220183486238532</v>
       </c>
       <c r="M43">
         <v>-0</v>
@@ -5698,73 +5554,61 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="V43">
-        <v>0.3542234332425068</v>
+        <v>1.392532795156408</v>
       </c>
       <c r="W43">
-        <v>-0.01553672316384181</v>
+        <v>-0.2915282392026578</v>
       </c>
       <c r="X43">
-        <v>0.06361900047241677</v>
+        <v>0.1649226351556519</v>
       </c>
       <c r="Y43">
-        <v>-0.07915572363625857</v>
+        <v>-0.4564508743583098</v>
       </c>
       <c r="Z43">
-        <v>-0.00520997187533968</v>
+        <v>0.06257175660160734</v>
       </c>
       <c r="AA43">
-        <v>-0.01111122919006578</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>0.04827701359446576</v>
+        <v>0.04595902437081907</v>
       </c>
       <c r="AC43">
-        <v>-0.05938824278453154</v>
+        <v>-0.04595902437081907</v>
       </c>
       <c r="AD43">
-        <v>34.6</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AE43">
-        <v>0.0365965735740273</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>34.63659657357403</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AG43">
-        <v>21.63659657357403</v>
+        <v>57.8</v>
       </c>
       <c r="AH43">
-        <v>0.4855375534751097</v>
+        <v>0.8784198257882468</v>
       </c>
       <c r="AI43">
-        <v>0.1598096358489979</v>
+        <v>0.4592687620269404</v>
       </c>
       <c r="AJ43">
-        <v>0.3708923359333448</v>
+        <v>0.8536405257716734</v>
       </c>
       <c r="AK43">
-        <v>0.1061988711770816</v>
+        <v>0.4067558057705841</v>
       </c>
       <c r="AL43">
-        <v>0.467</v>
+        <v>0</v>
       </c>
       <c r="AM43">
-        <v>0.431</v>
-      </c>
-      <c r="AN43">
-        <v>-15.57155715571557</v>
-      </c>
-      <c r="AO43">
-        <v>-4.860813704496787</v>
-      </c>
-      <c r="AP43">
-        <v>-9.737442202328547</v>
-      </c>
-      <c r="AQ43">
-        <v>-5.266821345707656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5775,7 +5619,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Southwest Securities International Securities Limited (SEHK:812)</t>
+          <t>Huarong International Financial Holdings Limited (SEHK:993)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5784,106 +5628,103 @@
         </is>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I44">
-        <v>0.2676533219877392</v>
+        <v>-0</v>
       </c>
       <c r="J44">
-        <v>0.2676533219877392</v>
+        <v>-0</v>
       </c>
       <c r="K44">
-        <v>-23.2</v>
+        <v>-222.5</v>
       </c>
       <c r="L44">
-        <v>-3.700159489633174</v>
+        <v>3.790459965928449</v>
       </c>
       <c r="M44">
-        <v>-0</v>
+        <v>8.6</v>
       </c>
       <c r="N44">
-        <v>-0</v>
+        <v>0.04725274725274725</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>-0.03865168539325842</v>
       </c>
       <c r="P44">
-        <v>-0</v>
+        <v>8.6</v>
       </c>
       <c r="Q44">
-        <v>-0</v>
+        <v>0.04725274725274725</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>-0.03865168539325842</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
       <c r="U44">
-        <v>52.8</v>
+        <v>202.7</v>
       </c>
       <c r="V44">
-        <v>0.3806777217015141</v>
+        <v>1.113736263736264</v>
       </c>
       <c r="W44">
-        <v>-1.208333333333333</v>
+        <v>-0.8604021655065738</v>
       </c>
       <c r="X44">
-        <v>0.07502358804120227</v>
+        <v>0.1716174445551445</v>
       </c>
       <c r="Y44">
-        <v>-1.283356921374535</v>
+        <v>-1.032019610061718</v>
       </c>
       <c r="Z44">
-        <v>0.03165722252484809</v>
+        <v>-0.01976564078389117</v>
       </c>
       <c r="AA44">
-        <v>0.008473160773680675</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>0.07052231448500743</v>
+        <v>0.04604388684973552</v>
       </c>
       <c r="AC44">
-        <v>-0.06204915371132675</v>
+        <v>-0.04604388684973552</v>
       </c>
       <c r="AD44">
-        <v>205.1</v>
+        <v>1380.9</v>
       </c>
       <c r="AE44">
-        <v>2.059068355684377</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>207.1590683556844</v>
+        <v>1380.9</v>
       </c>
       <c r="AG44">
-        <v>154.3590683556844</v>
+        <v>1178.2</v>
       </c>
       <c r="AH44">
-        <v>0.5989696015217396</v>
+        <v>0.8835498112483204</v>
       </c>
       <c r="AI44">
-        <v>0.9274710441834286</v>
+        <v>0.8207917261055635</v>
       </c>
       <c r="AJ44">
-        <v>0.5267165736306085</v>
+        <v>0.8661961476253492</v>
       </c>
       <c r="AK44">
-        <v>0.9050182429103303</v>
+        <v>0.7962424815841049</v>
       </c>
       <c r="AL44">
         <v>0</v>
       </c>
       <c r="AM44">
         <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>98.13397129186603</v>
-      </c>
-      <c r="AP44">
-        <v>73.8560135673131</v>
       </c>
     </row>
     <row r="45">
@@ -5894,7 +5735,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Future World Financial Holdings Limited (SEHK:572)</t>
+          <t>Future World Holdings Limited (SEHK:572)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5903,25 +5744,25 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.234</v>
+        <v>0.0755</v>
       </c>
       <c r="G45">
-        <v>-0.2504892367906066</v>
+        <v>-0.01256830601092896</v>
       </c>
       <c r="H45">
-        <v>-0.2504892367906066</v>
+        <v>-0.01256830601092896</v>
       </c>
       <c r="I45">
-        <v>-0.3015686517130405</v>
+        <v>-0.2049180327868853</v>
       </c>
       <c r="J45">
-        <v>-0.3015686517130405</v>
+        <v>-0.2049180327868853</v>
       </c>
       <c r="K45">
-        <v>-4.15</v>
+        <v>-14.6</v>
       </c>
       <c r="L45">
-        <v>-0.812133072407045</v>
+        <v>-0.7978142076502732</v>
       </c>
       <c r="M45">
         <v>-0</v>
@@ -5945,73 +5786,73 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>5.31</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>0.08719211822660099</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="W45">
-        <v>-0.01996151996151996</v>
+        <v>-0.101884159106769</v>
       </c>
       <c r="X45">
-        <v>0.06755614361094144</v>
+        <v>0.07468509514672038</v>
       </c>
       <c r="Y45">
-        <v>-0.08751766357246139</v>
+        <v>-0.1765692542534894</v>
       </c>
       <c r="Z45">
-        <v>0.01830130384563409</v>
+        <v>0.08845280100536516</v>
       </c>
       <c r="AA45">
-        <v>-0.005519099525318556</v>
+        <v>-0.01812557397650925</v>
       </c>
       <c r="AB45">
-        <v>0.06753086204735978</v>
+        <v>0.04301917463586129</v>
       </c>
       <c r="AC45">
-        <v>-0.07304996157267833</v>
+        <v>-0.06114474861237054</v>
       </c>
       <c r="AD45">
-        <v>68.90000000000001</v>
+        <v>59.7</v>
       </c>
       <c r="AE45">
-        <v>0.1350790512681851</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>69.03507905126818</v>
+        <v>59.7</v>
       </c>
       <c r="AG45">
-        <v>63.72507905126818</v>
+        <v>57.90000000000001</v>
       </c>
       <c r="AH45">
-        <v>0.5313043987453855</v>
+        <v>0.7007042253521126</v>
       </c>
       <c r="AI45">
-        <v>0.3251232879641131</v>
+        <v>0.3338926174496644</v>
       </c>
       <c r="AJ45">
-        <v>0.511334311973058</v>
+        <v>0.6942446043165468</v>
       </c>
       <c r="AK45">
-        <v>0.307813330362198</v>
+        <v>0.3271186440677966</v>
       </c>
       <c r="AL45">
-        <v>4.02</v>
+        <v>3.06</v>
       </c>
       <c r="AM45">
-        <v>4.018</v>
+        <v>3.058</v>
       </c>
       <c r="AN45">
-        <v>-48.72701555869872</v>
+        <v>-16.44628099173554</v>
       </c>
       <c r="AO45">
-        <v>-0.4129353233830846</v>
+        <v>-1.225490196078431</v>
       </c>
       <c r="AP45">
-        <v>-45.06724119608782</v>
+        <v>-15.9504132231405</v>
       </c>
       <c r="AQ45">
-        <v>-0.4131408661025386</v>
+        <v>-1.226291693917593</v>
       </c>
     </row>
     <row r="46">
@@ -6022,7 +5863,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Worldsec Limited (LSE:WSL)</t>
+          <t>Oriental Explorer Holdings Limited (SEHK:430)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6031,22 +5872,22 @@
         </is>
       </c>
       <c r="G46">
-        <v>2.814102564102564</v>
+        <v>-0.3311688311688311</v>
       </c>
       <c r="H46">
-        <v>2.814102564102564</v>
+        <v>-0.3311688311688311</v>
       </c>
       <c r="I46">
-        <v>2.458702275000534</v>
+        <v>1.077922077922078</v>
       </c>
       <c r="J46">
-        <v>2.458702275000534</v>
+        <v>1.077922077922078</v>
       </c>
       <c r="K46">
-        <v>-0.465</v>
+        <v>-14.8</v>
       </c>
       <c r="L46">
-        <v>2.980769230769231</v>
+        <v>0.961038961038961</v>
       </c>
       <c r="M46">
         <v>-0</v>
@@ -6070,73 +5911,73 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>2.35</v>
+        <v>19.6</v>
       </c>
       <c r="V46">
-        <v>0.47</v>
+        <v>0.6125</v>
       </c>
       <c r="W46">
-        <v>-0.08003442340791739</v>
+        <v>-0.08127402526084569</v>
       </c>
       <c r="X46">
-        <v>0.04498295884853649</v>
+        <v>0.03142781672395131</v>
       </c>
       <c r="Y46">
-        <v>-0.1250173822564539</v>
+        <v>-0.112701841984797</v>
       </c>
       <c r="Z46">
-        <v>-0.04701928230580996</v>
+        <v>-0.07560137457044674</v>
       </c>
       <c r="AA46">
-        <v>-0.1156064163741873</v>
+        <v>-0.0814923907707413</v>
       </c>
       <c r="AB46">
-        <v>0.04455822328282384</v>
+        <v>0.03142781672395131</v>
       </c>
       <c r="AC46">
-        <v>-0.1601646396570111</v>
+        <v>-0.1129202074946926</v>
       </c>
       <c r="AD46">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>0.1277877745004162</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>0.2267877745004162</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>-2.123212225499584</v>
+        <v>-19.6</v>
       </c>
       <c r="AH46">
-        <v>0.04338951269589149</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>0.04210074426432162</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
-        <v>-0.7380496553550259</v>
+        <v>-1.580645161290323</v>
       </c>
       <c r="AK46">
-        <v>-0.6991638478421084</v>
+        <v>-0.129973474801061</v>
       </c>
       <c r="AL46">
-        <v>0.003</v>
+        <v>0.237</v>
       </c>
       <c r="AM46">
-        <v>0.002</v>
+        <v>0.206</v>
       </c>
       <c r="AN46">
-        <v>1.253164556962025</v>
+        <v>-0</v>
       </c>
       <c r="AO46">
-        <v>-145.6666666666667</v>
+        <v>-70.04219409282702</v>
       </c>
       <c r="AP46">
-        <v>-26.8761041202479</v>
+        <v>1.180722891566265</v>
       </c>
       <c r="AQ46">
-        <v>-218.5</v>
+        <v>-80.58252427184468</v>
       </c>
     </row>
     <row r="47">
@@ -6147,7 +5988,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZZ Capital International Limited (SEHK:8295)</t>
+          <t>Worldsec Limited (LSE:WSL)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6156,22 +5997,22 @@
         </is>
       </c>
       <c r="G47">
-        <v>3.737142857142858</v>
+        <v>-0</v>
       </c>
       <c r="H47">
-        <v>3.737142857142858</v>
+        <v>-0</v>
       </c>
       <c r="I47">
-        <v>1.94318981653683</v>
+        <v>3.879629629629629</v>
       </c>
       <c r="J47">
-        <v>1.94318981653683</v>
+        <v>3.879629629629629</v>
       </c>
       <c r="K47">
-        <v>-20.5</v>
+        <v>-0.749</v>
       </c>
       <c r="L47">
-        <v>2.342857142857143</v>
+        <v>6.935185185185185</v>
       </c>
       <c r="M47">
         <v>-0</v>
@@ -6195,67 +6036,67 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>61.6</v>
+        <v>1.31</v>
       </c>
       <c r="V47">
-        <v>0.1710635934462649</v>
+        <v>0.5646551724137931</v>
       </c>
       <c r="W47">
-        <v>-0.1894639556377079</v>
+        <v>-0.1451550387596899</v>
       </c>
       <c r="X47">
-        <v>0.04417024306708481</v>
+        <v>0.03158709885295562</v>
       </c>
       <c r="Y47">
-        <v>-0.2336341987047927</v>
+        <v>-0.1767421376126455</v>
       </c>
       <c r="Z47">
-        <v>-0.2073727311304642</v>
+        <v>-0.03712616019250601</v>
       </c>
       <c r="AA47">
-        <v>-0.402964579360148</v>
+        <v>-0.1440357511172224</v>
       </c>
       <c r="AB47">
-        <v>0.04446733153323335</v>
+        <v>0.03156920510375557</v>
       </c>
       <c r="AC47">
-        <v>-0.4474319108933813</v>
+        <v>-0.175604956220978</v>
       </c>
       <c r="AD47">
-        <v>1.13</v>
+        <v>0.02</v>
       </c>
       <c r="AE47">
-        <v>1.094554473486301</v>
+        <v>0</v>
       </c>
       <c r="AF47">
-        <v>2.224554473486301</v>
+        <v>0.02</v>
       </c>
       <c r="AG47">
-        <v>-59.3754455265137</v>
+        <v>-1.29</v>
       </c>
       <c r="AH47">
-        <v>0.006139673522041373</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="AI47">
-        <v>0.02479315151287443</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="AJ47">
-        <v>-0.197441295176143</v>
+        <v>-1.25242718446602</v>
       </c>
       <c r="AK47">
-        <v>-2.111160394824685</v>
+        <v>-0.4095238095238095</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <v>-0.06772956125629345</v>
-      </c>
-      <c r="AP47">
-        <v>3.558825553015686</v>
+        <v>0.003</v>
+      </c>
+      <c r="AO47">
+        <v>-139.6666666666667</v>
+      </c>
+      <c r="AQ47">
+        <v>-139.6666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -6266,7 +6107,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Amasse Capital Holdings Limited (SEHK:8168)</t>
+          <t>Unitas Holdings Limited (SEHK:8020)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6274,23 +6115,26 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D48">
+        <v>0.234</v>
+      </c>
       <c r="G48">
-        <v>-0.3952054794520548</v>
+        <v>-0.483974358974359</v>
       </c>
       <c r="H48">
-        <v>-0.3952054794520548</v>
+        <v>-0.483974358974359</v>
       </c>
       <c r="I48">
-        <v>-0.4075342465753425</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="J48">
-        <v>-0.4075342465753425</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="K48">
-        <v>-0.595</v>
+        <v>-5.17</v>
       </c>
       <c r="L48">
-        <v>-0.4075342465753425</v>
+        <v>-1.657051282051282</v>
       </c>
       <c r="M48">
         <v>-0</v>
@@ -6314,67 +6158,201 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>5.04</v>
+        <v>2.45</v>
       </c>
       <c r="V48">
-        <v>0.3818181818181818</v>
+        <v>0.2845528455284553</v>
       </c>
       <c r="W48">
-        <v>-0.0953525641025641</v>
+        <v>-0.6856763925729443</v>
       </c>
       <c r="X48">
-        <v>0.04404210012030307</v>
+        <v>0.03255015449426876</v>
       </c>
       <c r="Y48">
-        <v>-0.1393946642228672</v>
+        <v>-0.7182265470672131</v>
       </c>
       <c r="Z48">
-        <v>3.743589743589738</v>
+        <v>0.5424200278164116</v>
       </c>
       <c r="AA48">
-        <v>-1.525641025641023</v>
+        <v>-0.2938108484005563</v>
       </c>
       <c r="AB48">
-        <v>0.04404210012030307</v>
+        <v>0.03289846520458222</v>
       </c>
       <c r="AC48">
-        <v>-1.569683125761326</v>
+        <v>-0.3267093136051385</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>0.523</v>
       </c>
       <c r="AE48">
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>0.523</v>
       </c>
       <c r="AG48">
-        <v>-5.04</v>
+        <v>-1.927</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>0.05726486368115626</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>0.175916582576522</v>
       </c>
       <c r="AJ48">
-        <v>-0.6176470588235294</v>
+        <v>-0.2883435582822086</v>
       </c>
       <c r="AK48">
-        <v>-9.509433962264147</v>
+        <v>-3.684512428298278</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="AN48">
-        <v>-0</v>
+        <v>-0.3486666666666667</v>
+      </c>
+      <c r="AO48">
+        <v>-31.88679245283019</v>
       </c>
       <c r="AP48">
-        <v>8.734835355285963</v>
+        <v>1.284666666666667</v>
+      </c>
+      <c r="AQ48">
+        <v>-31.88679245283019</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lee Hing Development Limited (SEHK:68)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="G49">
+        <v>0.7701298701298701</v>
+      </c>
+      <c r="H49">
+        <v>0.7701298701298701</v>
+      </c>
+      <c r="I49">
+        <v>1.051948051948052</v>
+      </c>
+      <c r="J49">
+        <v>1.051948051948052</v>
+      </c>
+      <c r="K49">
+        <v>-86.90000000000001</v>
+      </c>
+      <c r="L49">
+        <v>1.128571428571429</v>
+      </c>
+      <c r="M49">
+        <v>0.473</v>
+      </c>
+      <c r="N49">
+        <v>0.02318627450980392</v>
+      </c>
+      <c r="O49">
+        <v>-0.005443037974683543</v>
+      </c>
+      <c r="P49">
+        <v>0.473</v>
+      </c>
+      <c r="Q49">
+        <v>0.02318627450980392</v>
+      </c>
+      <c r="R49">
+        <v>-0.005443037974683543</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0.313</v>
+      </c>
+      <c r="V49">
+        <v>0.01534313725490196</v>
+      </c>
+      <c r="W49">
+        <v>-0.5728411338167436</v>
+      </c>
+      <c r="X49">
+        <v>0.05705974677764403</v>
+      </c>
+      <c r="Y49">
+        <v>-0.6299008805943876</v>
+      </c>
+      <c r="Z49">
+        <v>-0.3824376676268998</v>
+      </c>
+      <c r="AA49">
+        <v>-0.4023045594516738</v>
+      </c>
+      <c r="AB49">
+        <v>0.03581004001696698</v>
+      </c>
+      <c r="AC49">
+        <v>-0.4381145994686407</v>
+      </c>
+      <c r="AD49">
+        <v>28.3</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>28.3</v>
+      </c>
+      <c r="AG49">
+        <v>27.987</v>
+      </c>
+      <c r="AH49">
+        <v>0.5811088295687885</v>
+      </c>
+      <c r="AI49">
+        <v>0.3020277481323372</v>
+      </c>
+      <c r="AJ49">
+        <v>0.5783991567983137</v>
+      </c>
+      <c r="AK49">
+        <v>0.2996883934594751</v>
+      </c>
+      <c r="AL49">
+        <v>1.92</v>
+      </c>
+      <c r="AM49">
+        <v>1.92</v>
+      </c>
+      <c r="AN49">
+        <v>-0.349814585908529</v>
+      </c>
+      <c r="AO49">
+        <v>-42.1875</v>
+      </c>
+      <c r="AP49">
+        <v>-0.3459456118665019</v>
+      </c>
+      <c r="AQ49">
+        <v>-42.1875</v>
       </c>
     </row>
   </sheetData>
